--- a/Assets/06.Table/Title_Level.xlsx
+++ b/Assets/06.Table/Title_Level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99814084-B9C7-4F3C-8F1B-58AD03A33542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B990CEC-5DFA-4198-B186-D4A6E2FC1941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF7A53DF-8BFE-4F9B-B164-E3ACC1906308}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{DF7A53DF-8BFE-4F9B-B164-E3ACC1906308}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Level" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="981">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2966,6 +2966,156 @@
   <si>
     <t>condition</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 8010000달성</t>
+  </si>
+  <si>
+    <t>레벨 8020000달성</t>
+  </si>
+  <si>
+    <t>레벨 8030000달성</t>
+  </si>
+  <si>
+    <t>레벨 8040000달성</t>
+  </si>
+  <si>
+    <t>레벨 8050000달성</t>
+  </si>
+  <si>
+    <t>레벨 8060000달성</t>
+  </si>
+  <si>
+    <t>레벨 8070000달성</t>
+  </si>
+  <si>
+    <t>레벨 8080000달성</t>
+  </si>
+  <si>
+    <t>레벨 8090000달성</t>
+  </si>
+  <si>
+    <t>레벨 8100000달성</t>
+  </si>
+  <si>
+    <t>레벨 8110000달성</t>
+  </si>
+  <si>
+    <t>레벨 8120000달성</t>
+  </si>
+  <si>
+    <t>레벨 8130000달성</t>
+  </si>
+  <si>
+    <t>레벨 8140000달성</t>
+  </si>
+  <si>
+    <t>레벨 8150000달성</t>
+  </si>
+  <si>
+    <t>레벨 8160000달성</t>
+  </si>
+  <si>
+    <t>레벨 8170000달성</t>
+  </si>
+  <si>
+    <t>레벨 8180000달성</t>
+  </si>
+  <si>
+    <t>레벨 8190000달성</t>
+  </si>
+  <si>
+    <t>레벨 8200000달성</t>
+  </si>
+  <si>
+    <t>레벨 8210000달성</t>
+  </si>
+  <si>
+    <t>레벨 8220000달성</t>
+  </si>
+  <si>
+    <t>레벨 8230000달성</t>
+  </si>
+  <si>
+    <t>레벨 8240000달성</t>
+  </si>
+  <si>
+    <t>레벨 8250000달성</t>
+  </si>
+  <si>
+    <t>레벨 8260000달성</t>
+  </si>
+  <si>
+    <t>레벨 8270000달성</t>
+  </si>
+  <si>
+    <t>레벨 8280000달성</t>
+  </si>
+  <si>
+    <t>레벨 8290000달성</t>
+  </si>
+  <si>
+    <t>레벨 8300000달성</t>
+  </si>
+  <si>
+    <t>레벨 8310000달성</t>
+  </si>
+  <si>
+    <t>레벨 8320000달성</t>
+  </si>
+  <si>
+    <t>레벨 8330000달성</t>
+  </si>
+  <si>
+    <t>레벨 8340000달성</t>
+  </si>
+  <si>
+    <t>레벨 8350000달성</t>
+  </si>
+  <si>
+    <t>레벨 8360000달성</t>
+  </si>
+  <si>
+    <t>레벨 8370000달성</t>
+  </si>
+  <si>
+    <t>레벨 8380000달성</t>
+  </si>
+  <si>
+    <t>레벨 8390000달성</t>
+  </si>
+  <si>
+    <t>레벨 8400000달성</t>
+  </si>
+  <si>
+    <t>레벨 8410000달성</t>
+  </si>
+  <si>
+    <t>레벨 8420000달성</t>
+  </si>
+  <si>
+    <t>레벨 8430000달성</t>
+  </si>
+  <si>
+    <t>레벨 8440000달성</t>
+  </si>
+  <si>
+    <t>레벨 8450000달성</t>
+  </si>
+  <si>
+    <t>레벨 8460000달성</t>
+  </si>
+  <si>
+    <t>레벨 8470000달성</t>
+  </si>
+  <si>
+    <t>레벨 8480000달성</t>
+  </si>
+  <si>
+    <t>레벨 8490000달성</t>
+  </si>
+  <si>
+    <t>레벨 8500000달성</t>
   </si>
 </sst>
 </file>
@@ -3358,10 +3508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794A58EA-1598-432A-B5E7-01EB261779BA}">
-  <dimension ref="A1:M919"/>
+  <dimension ref="A1:M969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A908" workbookViewId="0">
-      <selection activeCell="D915" sqref="D915"/>
+    <sheetView tabSelected="1" topLeftCell="A927" workbookViewId="0">
+      <selection activeCell="K966" sqref="K966"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -42888,6 +43038,2156 @@
         <v>11</v>
       </c>
     </row>
+    <row r="920" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A920" s="1">
+        <v>918</v>
+      </c>
+      <c r="B920" s="1" t="str">
+        <f t="shared" ref="B920:B969" si="31">"level"&amp;A920</f>
+        <v>level918</v>
+      </c>
+      <c r="C920" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="D920" s="1" t="str">
+        <f t="shared" ref="D920:D969" si="32">MID(C920,4,7)</f>
+        <v>8010000</v>
+      </c>
+      <c r="E920" s="1">
+        <v>0</v>
+      </c>
+      <c r="F920" s="1">
+        <v>1</v>
+      </c>
+      <c r="G920" s="1">
+        <v>15535000000</v>
+      </c>
+      <c r="H920" s="1">
+        <v>11</v>
+      </c>
+      <c r="I920" s="1">
+        <v>156200000</v>
+      </c>
+      <c r="J920" s="1">
+        <v>10</v>
+      </c>
+      <c r="K920" s="1">
+        <v>0</v>
+      </c>
+      <c r="L920" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M920" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="921" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A921" s="1">
+        <v>919</v>
+      </c>
+      <c r="B921" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level919</v>
+      </c>
+      <c r="C921" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D921" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8020000</v>
+      </c>
+      <c r="E921" s="1">
+        <v>0</v>
+      </c>
+      <c r="F921" s="1">
+        <v>1</v>
+      </c>
+      <c r="G921" s="1">
+        <v>15555000000</v>
+      </c>
+      <c r="H921" s="1">
+        <v>11</v>
+      </c>
+      <c r="I921" s="1">
+        <v>156400000</v>
+      </c>
+      <c r="J921" s="1">
+        <v>10</v>
+      </c>
+      <c r="K921" s="1">
+        <v>0</v>
+      </c>
+      <c r="L921" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M921" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="922" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A922" s="1">
+        <v>920</v>
+      </c>
+      <c r="B922" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level920</v>
+      </c>
+      <c r="C922" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D922" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8030000</v>
+      </c>
+      <c r="E922" s="1">
+        <v>0</v>
+      </c>
+      <c r="F922" s="1">
+        <v>1</v>
+      </c>
+      <c r="G922" s="1">
+        <v>15575000000</v>
+      </c>
+      <c r="H922" s="1">
+        <v>11</v>
+      </c>
+      <c r="I922" s="1">
+        <v>156600000</v>
+      </c>
+      <c r="J922" s="1">
+        <v>10</v>
+      </c>
+      <c r="K922" s="1">
+        <v>0</v>
+      </c>
+      <c r="L922" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M922" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="923" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A923" s="1">
+        <v>921</v>
+      </c>
+      <c r="B923" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level921</v>
+      </c>
+      <c r="C923" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D923" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8040000</v>
+      </c>
+      <c r="E923" s="1">
+        <v>0</v>
+      </c>
+      <c r="F923" s="1">
+        <v>1</v>
+      </c>
+      <c r="G923" s="1">
+        <v>15595000000</v>
+      </c>
+      <c r="H923" s="1">
+        <v>11</v>
+      </c>
+      <c r="I923" s="1">
+        <v>156800000</v>
+      </c>
+      <c r="J923" s="1">
+        <v>10</v>
+      </c>
+      <c r="K923" s="1">
+        <v>0</v>
+      </c>
+      <c r="L923" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M923" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="924" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A924" s="1">
+        <v>922</v>
+      </c>
+      <c r="B924" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level922</v>
+      </c>
+      <c r="C924" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="D924" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8050000</v>
+      </c>
+      <c r="E924" s="1">
+        <v>0</v>
+      </c>
+      <c r="F924" s="1">
+        <v>1</v>
+      </c>
+      <c r="G924" s="1">
+        <v>15615000000</v>
+      </c>
+      <c r="H924" s="1">
+        <v>11</v>
+      </c>
+      <c r="I924" s="1">
+        <v>157000000</v>
+      </c>
+      <c r="J924" s="1">
+        <v>10</v>
+      </c>
+      <c r="K924" s="1">
+        <v>0</v>
+      </c>
+      <c r="L924" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M924" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="925" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A925" s="1">
+        <v>923</v>
+      </c>
+      <c r="B925" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level923</v>
+      </c>
+      <c r="C925" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D925" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8060000</v>
+      </c>
+      <c r="E925" s="1">
+        <v>0</v>
+      </c>
+      <c r="F925" s="1">
+        <v>1</v>
+      </c>
+      <c r="G925" s="1">
+        <v>15635000000</v>
+      </c>
+      <c r="H925" s="1">
+        <v>11</v>
+      </c>
+      <c r="I925" s="1">
+        <v>157200000</v>
+      </c>
+      <c r="J925" s="1">
+        <v>10</v>
+      </c>
+      <c r="K925" s="1">
+        <v>0</v>
+      </c>
+      <c r="L925" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M925" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="926" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A926" s="1">
+        <v>924</v>
+      </c>
+      <c r="B926" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level924</v>
+      </c>
+      <c r="C926" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="D926" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8070000</v>
+      </c>
+      <c r="E926" s="1">
+        <v>0</v>
+      </c>
+      <c r="F926" s="1">
+        <v>1</v>
+      </c>
+      <c r="G926" s="1">
+        <v>15655000000</v>
+      </c>
+      <c r="H926" s="1">
+        <v>11</v>
+      </c>
+      <c r="I926" s="1">
+        <v>157400000</v>
+      </c>
+      <c r="J926" s="1">
+        <v>10</v>
+      </c>
+      <c r="K926" s="1">
+        <v>0</v>
+      </c>
+      <c r="L926" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M926" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="927" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A927" s="1">
+        <v>925</v>
+      </c>
+      <c r="B927" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level925</v>
+      </c>
+      <c r="C927" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D927" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8080000</v>
+      </c>
+      <c r="E927" s="1">
+        <v>0</v>
+      </c>
+      <c r="F927" s="1">
+        <v>1</v>
+      </c>
+      <c r="G927" s="1">
+        <v>15675000000</v>
+      </c>
+      <c r="H927" s="1">
+        <v>11</v>
+      </c>
+      <c r="I927" s="1">
+        <v>157600000</v>
+      </c>
+      <c r="J927" s="1">
+        <v>10</v>
+      </c>
+      <c r="K927" s="1">
+        <v>0</v>
+      </c>
+      <c r="L927" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M927" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="928" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A928" s="1">
+        <v>926</v>
+      </c>
+      <c r="B928" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level926</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D928" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8090000</v>
+      </c>
+      <c r="E928" s="1">
+        <v>0</v>
+      </c>
+      <c r="F928" s="1">
+        <v>1</v>
+      </c>
+      <c r="G928" s="1">
+        <v>15695000000</v>
+      </c>
+      <c r="H928" s="1">
+        <v>11</v>
+      </c>
+      <c r="I928" s="1">
+        <v>157800000</v>
+      </c>
+      <c r="J928" s="1">
+        <v>10</v>
+      </c>
+      <c r="K928" s="1">
+        <v>0</v>
+      </c>
+      <c r="L928" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M928" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="929" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A929" s="1">
+        <v>927</v>
+      </c>
+      <c r="B929" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level927</v>
+      </c>
+      <c r="C929" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D929" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8100000</v>
+      </c>
+      <c r="E929" s="1">
+        <v>0</v>
+      </c>
+      <c r="F929" s="1">
+        <v>1</v>
+      </c>
+      <c r="G929" s="1">
+        <v>15715000000</v>
+      </c>
+      <c r="H929" s="1">
+        <v>11</v>
+      </c>
+      <c r="I929" s="1">
+        <v>158000000</v>
+      </c>
+      <c r="J929" s="1">
+        <v>10</v>
+      </c>
+      <c r="K929" s="1">
+        <v>0</v>
+      </c>
+      <c r="L929" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M929" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="930" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A930" s="1">
+        <v>928</v>
+      </c>
+      <c r="B930" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level928</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D930" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8110000</v>
+      </c>
+      <c r="E930" s="1">
+        <v>0</v>
+      </c>
+      <c r="F930" s="1">
+        <v>1</v>
+      </c>
+      <c r="G930" s="1">
+        <v>15735000000</v>
+      </c>
+      <c r="H930" s="1">
+        <v>11</v>
+      </c>
+      <c r="I930" s="1">
+        <v>158200000</v>
+      </c>
+      <c r="J930" s="1">
+        <v>10</v>
+      </c>
+      <c r="K930" s="1">
+        <v>0</v>
+      </c>
+      <c r="L930" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M930" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="931" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A931" s="1">
+        <v>929</v>
+      </c>
+      <c r="B931" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level929</v>
+      </c>
+      <c r="C931" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D931" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8120000</v>
+      </c>
+      <c r="E931" s="1">
+        <v>0</v>
+      </c>
+      <c r="F931" s="1">
+        <v>1</v>
+      </c>
+      <c r="G931" s="1">
+        <v>15755000000</v>
+      </c>
+      <c r="H931" s="1">
+        <v>11</v>
+      </c>
+      <c r="I931" s="1">
+        <v>158400000</v>
+      </c>
+      <c r="J931" s="1">
+        <v>10</v>
+      </c>
+      <c r="K931" s="1">
+        <v>0</v>
+      </c>
+      <c r="L931" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M931" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="932" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A932" s="1">
+        <v>930</v>
+      </c>
+      <c r="B932" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level930</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D932" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8130000</v>
+      </c>
+      <c r="E932" s="1">
+        <v>0</v>
+      </c>
+      <c r="F932" s="1">
+        <v>1</v>
+      </c>
+      <c r="G932" s="1">
+        <v>15775000000</v>
+      </c>
+      <c r="H932" s="1">
+        <v>11</v>
+      </c>
+      <c r="I932" s="1">
+        <v>158600000</v>
+      </c>
+      <c r="J932" s="1">
+        <v>10</v>
+      </c>
+      <c r="K932" s="1">
+        <v>0</v>
+      </c>
+      <c r="L932" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M932" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="933" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A933" s="1">
+        <v>931</v>
+      </c>
+      <c r="B933" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level931</v>
+      </c>
+      <c r="C933" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D933" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8140000</v>
+      </c>
+      <c r="E933" s="1">
+        <v>0</v>
+      </c>
+      <c r="F933" s="1">
+        <v>1</v>
+      </c>
+      <c r="G933" s="1">
+        <v>15795000000</v>
+      </c>
+      <c r="H933" s="1">
+        <v>11</v>
+      </c>
+      <c r="I933" s="1">
+        <v>158800000</v>
+      </c>
+      <c r="J933" s="1">
+        <v>10</v>
+      </c>
+      <c r="K933" s="1">
+        <v>0</v>
+      </c>
+      <c r="L933" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M933" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="934" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A934" s="1">
+        <v>932</v>
+      </c>
+      <c r="B934" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level932</v>
+      </c>
+      <c r="C934" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D934" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8150000</v>
+      </c>
+      <c r="E934" s="1">
+        <v>0</v>
+      </c>
+      <c r="F934" s="1">
+        <v>1</v>
+      </c>
+      <c r="G934" s="1">
+        <v>15815000000</v>
+      </c>
+      <c r="H934" s="1">
+        <v>11</v>
+      </c>
+      <c r="I934" s="1">
+        <v>159000000</v>
+      </c>
+      <c r="J934" s="1">
+        <v>10</v>
+      </c>
+      <c r="K934" s="1">
+        <v>0</v>
+      </c>
+      <c r="L934" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M934" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="935" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A935" s="1">
+        <v>933</v>
+      </c>
+      <c r="B935" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level933</v>
+      </c>
+      <c r="C935" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D935" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8160000</v>
+      </c>
+      <c r="E935" s="1">
+        <v>0</v>
+      </c>
+      <c r="F935" s="1">
+        <v>1</v>
+      </c>
+      <c r="G935" s="1">
+        <v>15835000000</v>
+      </c>
+      <c r="H935" s="1">
+        <v>11</v>
+      </c>
+      <c r="I935" s="1">
+        <v>159200000</v>
+      </c>
+      <c r="J935" s="1">
+        <v>10</v>
+      </c>
+      <c r="K935" s="1">
+        <v>0</v>
+      </c>
+      <c r="L935" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M935" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="936" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A936" s="1">
+        <v>934</v>
+      </c>
+      <c r="B936" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level934</v>
+      </c>
+      <c r="C936" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D936" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8170000</v>
+      </c>
+      <c r="E936" s="1">
+        <v>0</v>
+      </c>
+      <c r="F936" s="1">
+        <v>1</v>
+      </c>
+      <c r="G936" s="1">
+        <v>15855000000</v>
+      </c>
+      <c r="H936" s="1">
+        <v>11</v>
+      </c>
+      <c r="I936" s="1">
+        <v>159400000</v>
+      </c>
+      <c r="J936" s="1">
+        <v>10</v>
+      </c>
+      <c r="K936" s="1">
+        <v>0</v>
+      </c>
+      <c r="L936" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M936" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="937" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A937" s="1">
+        <v>935</v>
+      </c>
+      <c r="B937" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level935</v>
+      </c>
+      <c r="C937" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D937" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8180000</v>
+      </c>
+      <c r="E937" s="1">
+        <v>0</v>
+      </c>
+      <c r="F937" s="1">
+        <v>1</v>
+      </c>
+      <c r="G937" s="1">
+        <v>15875000000</v>
+      </c>
+      <c r="H937" s="1">
+        <v>11</v>
+      </c>
+      <c r="I937" s="1">
+        <v>159600000</v>
+      </c>
+      <c r="J937" s="1">
+        <v>10</v>
+      </c>
+      <c r="K937" s="1">
+        <v>0</v>
+      </c>
+      <c r="L937" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M937" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="938" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A938" s="1">
+        <v>936</v>
+      </c>
+      <c r="B938" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level936</v>
+      </c>
+      <c r="C938" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="D938" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8190000</v>
+      </c>
+      <c r="E938" s="1">
+        <v>0</v>
+      </c>
+      <c r="F938" s="1">
+        <v>1</v>
+      </c>
+      <c r="G938" s="1">
+        <v>15895000000</v>
+      </c>
+      <c r="H938" s="1">
+        <v>11</v>
+      </c>
+      <c r="I938" s="1">
+        <v>159800000</v>
+      </c>
+      <c r="J938" s="1">
+        <v>10</v>
+      </c>
+      <c r="K938" s="1">
+        <v>0</v>
+      </c>
+      <c r="L938" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M938" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="939" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A939" s="1">
+        <v>937</v>
+      </c>
+      <c r="B939" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level937</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D939" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8200000</v>
+      </c>
+      <c r="E939" s="1">
+        <v>0</v>
+      </c>
+      <c r="F939" s="1">
+        <v>1</v>
+      </c>
+      <c r="G939" s="1">
+        <v>15915000000</v>
+      </c>
+      <c r="H939" s="1">
+        <v>11</v>
+      </c>
+      <c r="I939" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="J939" s="1">
+        <v>10</v>
+      </c>
+      <c r="K939" s="1">
+        <v>0</v>
+      </c>
+      <c r="L939" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M939" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="940" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A940" s="1">
+        <v>938</v>
+      </c>
+      <c r="B940" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level938</v>
+      </c>
+      <c r="C940" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D940" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8210000</v>
+      </c>
+      <c r="E940" s="1">
+        <v>0</v>
+      </c>
+      <c r="F940" s="1">
+        <v>1</v>
+      </c>
+      <c r="G940" s="1">
+        <v>15935000000</v>
+      </c>
+      <c r="H940" s="1">
+        <v>11</v>
+      </c>
+      <c r="I940" s="1">
+        <v>160200000</v>
+      </c>
+      <c r="J940" s="1">
+        <v>10</v>
+      </c>
+      <c r="K940" s="1">
+        <v>0</v>
+      </c>
+      <c r="L940" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M940" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="941" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A941" s="1">
+        <v>939</v>
+      </c>
+      <c r="B941" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level939</v>
+      </c>
+      <c r="C941" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D941" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8220000</v>
+      </c>
+      <c r="E941" s="1">
+        <v>0</v>
+      </c>
+      <c r="F941" s="1">
+        <v>1</v>
+      </c>
+      <c r="G941" s="1">
+        <v>15955000000</v>
+      </c>
+      <c r="H941" s="1">
+        <v>11</v>
+      </c>
+      <c r="I941" s="1">
+        <v>160400000</v>
+      </c>
+      <c r="J941" s="1">
+        <v>10</v>
+      </c>
+      <c r="K941" s="1">
+        <v>0</v>
+      </c>
+      <c r="L941" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M941" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="942" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A942" s="1">
+        <v>940</v>
+      </c>
+      <c r="B942" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level940</v>
+      </c>
+      <c r="C942" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D942" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8230000</v>
+      </c>
+      <c r="E942" s="1">
+        <v>0</v>
+      </c>
+      <c r="F942" s="1">
+        <v>1</v>
+      </c>
+      <c r="G942" s="1">
+        <v>15975000000</v>
+      </c>
+      <c r="H942" s="1">
+        <v>11</v>
+      </c>
+      <c r="I942" s="1">
+        <v>160600000</v>
+      </c>
+      <c r="J942" s="1">
+        <v>10</v>
+      </c>
+      <c r="K942" s="1">
+        <v>0</v>
+      </c>
+      <c r="L942" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M942" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="943" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A943" s="1">
+        <v>941</v>
+      </c>
+      <c r="B943" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level941</v>
+      </c>
+      <c r="C943" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="D943" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8240000</v>
+      </c>
+      <c r="E943" s="1">
+        <v>0</v>
+      </c>
+      <c r="F943" s="1">
+        <v>1</v>
+      </c>
+      <c r="G943" s="1">
+        <v>15995000000</v>
+      </c>
+      <c r="H943" s="1">
+        <v>11</v>
+      </c>
+      <c r="I943" s="1">
+        <v>160800000</v>
+      </c>
+      <c r="J943" s="1">
+        <v>10</v>
+      </c>
+      <c r="K943" s="1">
+        <v>0</v>
+      </c>
+      <c r="L943" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M943" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="944" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A944" s="1">
+        <v>942</v>
+      </c>
+      <c r="B944" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level942</v>
+      </c>
+      <c r="C944" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="D944" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8250000</v>
+      </c>
+      <c r="E944" s="1">
+        <v>0</v>
+      </c>
+      <c r="F944" s="1">
+        <v>1</v>
+      </c>
+      <c r="G944" s="1">
+        <v>16015000000</v>
+      </c>
+      <c r="H944" s="1">
+        <v>11</v>
+      </c>
+      <c r="I944" s="1">
+        <v>161000000</v>
+      </c>
+      <c r="J944" s="1">
+        <v>10</v>
+      </c>
+      <c r="K944" s="1">
+        <v>0</v>
+      </c>
+      <c r="L944" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M944" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="945" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A945" s="1">
+        <v>943</v>
+      </c>
+      <c r="B945" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level943</v>
+      </c>
+      <c r="C945" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D945" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8260000</v>
+      </c>
+      <c r="E945" s="1">
+        <v>0</v>
+      </c>
+      <c r="F945" s="1">
+        <v>1</v>
+      </c>
+      <c r="G945" s="1">
+        <v>16035000000</v>
+      </c>
+      <c r="H945" s="1">
+        <v>11</v>
+      </c>
+      <c r="I945" s="1">
+        <v>161200000</v>
+      </c>
+      <c r="J945" s="1">
+        <v>10</v>
+      </c>
+      <c r="K945" s="1">
+        <v>0</v>
+      </c>
+      <c r="L945" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M945" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="946" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A946" s="1">
+        <v>944</v>
+      </c>
+      <c r="B946" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level944</v>
+      </c>
+      <c r="C946" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D946" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8270000</v>
+      </c>
+      <c r="E946" s="1">
+        <v>0</v>
+      </c>
+      <c r="F946" s="1">
+        <v>1</v>
+      </c>
+      <c r="G946" s="1">
+        <v>16055000000</v>
+      </c>
+      <c r="H946" s="1">
+        <v>11</v>
+      </c>
+      <c r="I946" s="1">
+        <v>161400000</v>
+      </c>
+      <c r="J946" s="1">
+        <v>10</v>
+      </c>
+      <c r="K946" s="1">
+        <v>0</v>
+      </c>
+      <c r="L946" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M946" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="947" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A947" s="1">
+        <v>945</v>
+      </c>
+      <c r="B947" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level945</v>
+      </c>
+      <c r="C947" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D947" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8280000</v>
+      </c>
+      <c r="E947" s="1">
+        <v>0</v>
+      </c>
+      <c r="F947" s="1">
+        <v>1</v>
+      </c>
+      <c r="G947" s="1">
+        <v>16075000000</v>
+      </c>
+      <c r="H947" s="1">
+        <v>11</v>
+      </c>
+      <c r="I947" s="1">
+        <v>161600000</v>
+      </c>
+      <c r="J947" s="1">
+        <v>10</v>
+      </c>
+      <c r="K947" s="1">
+        <v>0</v>
+      </c>
+      <c r="L947" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M947" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="948" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A948" s="1">
+        <v>946</v>
+      </c>
+      <c r="B948" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level946</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D948" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8290000</v>
+      </c>
+      <c r="E948" s="1">
+        <v>0</v>
+      </c>
+      <c r="F948" s="1">
+        <v>1</v>
+      </c>
+      <c r="G948" s="1">
+        <v>16095000000</v>
+      </c>
+      <c r="H948" s="1">
+        <v>11</v>
+      </c>
+      <c r="I948" s="1">
+        <v>161800000</v>
+      </c>
+      <c r="J948" s="1">
+        <v>10</v>
+      </c>
+      <c r="K948" s="1">
+        <v>0</v>
+      </c>
+      <c r="L948" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M948" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="949" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A949" s="1">
+        <v>947</v>
+      </c>
+      <c r="B949" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level947</v>
+      </c>
+      <c r="C949" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D949" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8300000</v>
+      </c>
+      <c r="E949" s="1">
+        <v>0</v>
+      </c>
+      <c r="F949" s="1">
+        <v>1</v>
+      </c>
+      <c r="G949" s="1">
+        <v>16115000000</v>
+      </c>
+      <c r="H949" s="1">
+        <v>11</v>
+      </c>
+      <c r="I949" s="1">
+        <v>162000000</v>
+      </c>
+      <c r="J949" s="1">
+        <v>10</v>
+      </c>
+      <c r="K949" s="1">
+        <v>0</v>
+      </c>
+      <c r="L949" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M949" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="950" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A950" s="1">
+        <v>948</v>
+      </c>
+      <c r="B950" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level948</v>
+      </c>
+      <c r="C950" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D950" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8310000</v>
+      </c>
+      <c r="E950" s="1">
+        <v>0</v>
+      </c>
+      <c r="F950" s="1">
+        <v>1</v>
+      </c>
+      <c r="G950" s="1">
+        <v>16135000000</v>
+      </c>
+      <c r="H950" s="1">
+        <v>11</v>
+      </c>
+      <c r="I950" s="1">
+        <v>162200000</v>
+      </c>
+      <c r="J950" s="1">
+        <v>10</v>
+      </c>
+      <c r="K950" s="1">
+        <v>0</v>
+      </c>
+      <c r="L950" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M950" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="951" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A951" s="1">
+        <v>949</v>
+      </c>
+      <c r="B951" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level949</v>
+      </c>
+      <c r="C951" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D951" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8320000</v>
+      </c>
+      <c r="E951" s="1">
+        <v>0</v>
+      </c>
+      <c r="F951" s="1">
+        <v>1</v>
+      </c>
+      <c r="G951" s="1">
+        <v>16155000000</v>
+      </c>
+      <c r="H951" s="1">
+        <v>11</v>
+      </c>
+      <c r="I951" s="1">
+        <v>162400000</v>
+      </c>
+      <c r="J951" s="1">
+        <v>10</v>
+      </c>
+      <c r="K951" s="1">
+        <v>0</v>
+      </c>
+      <c r="L951" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M951" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="952" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A952" s="1">
+        <v>950</v>
+      </c>
+      <c r="B952" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level950</v>
+      </c>
+      <c r="C952" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="D952" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8330000</v>
+      </c>
+      <c r="E952" s="1">
+        <v>0</v>
+      </c>
+      <c r="F952" s="1">
+        <v>1</v>
+      </c>
+      <c r="G952" s="1">
+        <v>16175000000</v>
+      </c>
+      <c r="H952" s="1">
+        <v>11</v>
+      </c>
+      <c r="I952" s="1">
+        <v>162600000</v>
+      </c>
+      <c r="J952" s="1">
+        <v>10</v>
+      </c>
+      <c r="K952" s="1">
+        <v>0</v>
+      </c>
+      <c r="L952" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M952" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="953" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A953" s="1">
+        <v>951</v>
+      </c>
+      <c r="B953" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level951</v>
+      </c>
+      <c r="C953" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="D953" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8340000</v>
+      </c>
+      <c r="E953" s="1">
+        <v>0</v>
+      </c>
+      <c r="F953" s="1">
+        <v>1</v>
+      </c>
+      <c r="G953" s="1">
+        <v>16195000000</v>
+      </c>
+      <c r="H953" s="1">
+        <v>11</v>
+      </c>
+      <c r="I953" s="1">
+        <v>162800000</v>
+      </c>
+      <c r="J953" s="1">
+        <v>10</v>
+      </c>
+      <c r="K953" s="1">
+        <v>0</v>
+      </c>
+      <c r="L953" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M953" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="954" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A954" s="1">
+        <v>952</v>
+      </c>
+      <c r="B954" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level952</v>
+      </c>
+      <c r="C954" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D954" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8350000</v>
+      </c>
+      <c r="E954" s="1">
+        <v>0</v>
+      </c>
+      <c r="F954" s="1">
+        <v>1</v>
+      </c>
+      <c r="G954" s="1">
+        <v>16215000000</v>
+      </c>
+      <c r="H954" s="1">
+        <v>11</v>
+      </c>
+      <c r="I954" s="1">
+        <v>163000000</v>
+      </c>
+      <c r="J954" s="1">
+        <v>10</v>
+      </c>
+      <c r="K954" s="1">
+        <v>0</v>
+      </c>
+      <c r="L954" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M954" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="955" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A955" s="1">
+        <v>953</v>
+      </c>
+      <c r="B955" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level953</v>
+      </c>
+      <c r="C955" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D955" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8360000</v>
+      </c>
+      <c r="E955" s="1">
+        <v>0</v>
+      </c>
+      <c r="F955" s="1">
+        <v>1</v>
+      </c>
+      <c r="G955" s="1">
+        <v>16235000000</v>
+      </c>
+      <c r="H955" s="1">
+        <v>11</v>
+      </c>
+      <c r="I955" s="1">
+        <v>163200000</v>
+      </c>
+      <c r="J955" s="1">
+        <v>10</v>
+      </c>
+      <c r="K955" s="1">
+        <v>0</v>
+      </c>
+      <c r="L955" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M955" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="956" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A956" s="1">
+        <v>954</v>
+      </c>
+      <c r="B956" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level954</v>
+      </c>
+      <c r="C956" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D956" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8370000</v>
+      </c>
+      <c r="E956" s="1">
+        <v>0</v>
+      </c>
+      <c r="F956" s="1">
+        <v>1</v>
+      </c>
+      <c r="G956" s="1">
+        <v>16255000000</v>
+      </c>
+      <c r="H956" s="1">
+        <v>11</v>
+      </c>
+      <c r="I956" s="1">
+        <v>163400000</v>
+      </c>
+      <c r="J956" s="1">
+        <v>10</v>
+      </c>
+      <c r="K956" s="1">
+        <v>0</v>
+      </c>
+      <c r="L956" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M956" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="957" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A957" s="1">
+        <v>955</v>
+      </c>
+      <c r="B957" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level955</v>
+      </c>
+      <c r="C957" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="D957" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8380000</v>
+      </c>
+      <c r="E957" s="1">
+        <v>0</v>
+      </c>
+      <c r="F957" s="1">
+        <v>1</v>
+      </c>
+      <c r="G957" s="1">
+        <v>16275000000</v>
+      </c>
+      <c r="H957" s="1">
+        <v>11</v>
+      </c>
+      <c r="I957" s="1">
+        <v>163600000</v>
+      </c>
+      <c r="J957" s="1">
+        <v>10</v>
+      </c>
+      <c r="K957" s="1">
+        <v>0</v>
+      </c>
+      <c r="L957" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M957" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="958" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A958" s="1">
+        <v>956</v>
+      </c>
+      <c r="B958" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level956</v>
+      </c>
+      <c r="C958" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="D958" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8390000</v>
+      </c>
+      <c r="E958" s="1">
+        <v>0</v>
+      </c>
+      <c r="F958" s="1">
+        <v>1</v>
+      </c>
+      <c r="G958" s="1">
+        <v>16295000000</v>
+      </c>
+      <c r="H958" s="1">
+        <v>11</v>
+      </c>
+      <c r="I958" s="1">
+        <v>163800000</v>
+      </c>
+      <c r="J958" s="1">
+        <v>10</v>
+      </c>
+      <c r="K958" s="1">
+        <v>0</v>
+      </c>
+      <c r="L958" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M958" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="959" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A959" s="1">
+        <v>957</v>
+      </c>
+      <c r="B959" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level957</v>
+      </c>
+      <c r="C959" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="D959" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8400000</v>
+      </c>
+      <c r="E959" s="1">
+        <v>0</v>
+      </c>
+      <c r="F959" s="1">
+        <v>1</v>
+      </c>
+      <c r="G959" s="1">
+        <v>16315000000</v>
+      </c>
+      <c r="H959" s="1">
+        <v>11</v>
+      </c>
+      <c r="I959" s="1">
+        <v>164000000</v>
+      </c>
+      <c r="J959" s="1">
+        <v>10</v>
+      </c>
+      <c r="K959" s="1">
+        <v>0</v>
+      </c>
+      <c r="L959" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M959" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="960" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A960" s="1">
+        <v>958</v>
+      </c>
+      <c r="B960" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level958</v>
+      </c>
+      <c r="C960" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="D960" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8410000</v>
+      </c>
+      <c r="E960" s="1">
+        <v>0</v>
+      </c>
+      <c r="F960" s="1">
+        <v>1</v>
+      </c>
+      <c r="G960" s="1">
+        <v>16335000000</v>
+      </c>
+      <c r="H960" s="1">
+        <v>11</v>
+      </c>
+      <c r="I960" s="1">
+        <v>164200000</v>
+      </c>
+      <c r="J960" s="1">
+        <v>10</v>
+      </c>
+      <c r="K960" s="1">
+        <v>0</v>
+      </c>
+      <c r="L960" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M960" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="961" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A961" s="1">
+        <v>959</v>
+      </c>
+      <c r="B961" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level959</v>
+      </c>
+      <c r="C961" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D961" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8420000</v>
+      </c>
+      <c r="E961" s="1">
+        <v>0</v>
+      </c>
+      <c r="F961" s="1">
+        <v>1</v>
+      </c>
+      <c r="G961" s="1">
+        <v>16355000000</v>
+      </c>
+      <c r="H961" s="1">
+        <v>11</v>
+      </c>
+      <c r="I961" s="1">
+        <v>164400000</v>
+      </c>
+      <c r="J961" s="1">
+        <v>10</v>
+      </c>
+      <c r="K961" s="1">
+        <v>0</v>
+      </c>
+      <c r="L961" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M961" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="962" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A962" s="1">
+        <v>960</v>
+      </c>
+      <c r="B962" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level960</v>
+      </c>
+      <c r="C962" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="D962" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8430000</v>
+      </c>
+      <c r="E962" s="1">
+        <v>0</v>
+      </c>
+      <c r="F962" s="1">
+        <v>1</v>
+      </c>
+      <c r="G962" s="1">
+        <v>16375000000</v>
+      </c>
+      <c r="H962" s="1">
+        <v>11</v>
+      </c>
+      <c r="I962" s="1">
+        <v>164600000</v>
+      </c>
+      <c r="J962" s="1">
+        <v>10</v>
+      </c>
+      <c r="K962" s="1">
+        <v>0</v>
+      </c>
+      <c r="L962" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M962" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="963" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A963" s="1">
+        <v>961</v>
+      </c>
+      <c r="B963" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level961</v>
+      </c>
+      <c r="C963" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="D963" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8440000</v>
+      </c>
+      <c r="E963" s="1">
+        <v>0</v>
+      </c>
+      <c r="F963" s="1">
+        <v>1</v>
+      </c>
+      <c r="G963" s="1">
+        <v>16395000000</v>
+      </c>
+      <c r="H963" s="1">
+        <v>11</v>
+      </c>
+      <c r="I963" s="1">
+        <v>164800000</v>
+      </c>
+      <c r="J963" s="1">
+        <v>10</v>
+      </c>
+      <c r="K963" s="1">
+        <v>0</v>
+      </c>
+      <c r="L963" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M963" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="964" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A964" s="1">
+        <v>962</v>
+      </c>
+      <c r="B964" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level962</v>
+      </c>
+      <c r="C964" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D964" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8450000</v>
+      </c>
+      <c r="E964" s="1">
+        <v>0</v>
+      </c>
+      <c r="F964" s="1">
+        <v>1</v>
+      </c>
+      <c r="G964" s="1">
+        <v>16415000000</v>
+      </c>
+      <c r="H964" s="1">
+        <v>11</v>
+      </c>
+      <c r="I964" s="1">
+        <v>165000000</v>
+      </c>
+      <c r="J964" s="1">
+        <v>10</v>
+      </c>
+      <c r="K964" s="1">
+        <v>0</v>
+      </c>
+      <c r="L964" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M964" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="965" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A965" s="1">
+        <v>963</v>
+      </c>
+      <c r="B965" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level963</v>
+      </c>
+      <c r="C965" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D965" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8460000</v>
+      </c>
+      <c r="E965" s="1">
+        <v>0</v>
+      </c>
+      <c r="F965" s="1">
+        <v>1</v>
+      </c>
+      <c r="G965" s="1">
+        <v>16435000000</v>
+      </c>
+      <c r="H965" s="1">
+        <v>11</v>
+      </c>
+      <c r="I965" s="1">
+        <v>165200000</v>
+      </c>
+      <c r="J965" s="1">
+        <v>10</v>
+      </c>
+      <c r="K965" s="1">
+        <v>0</v>
+      </c>
+      <c r="L965" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M965" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="966" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A966" s="1">
+        <v>964</v>
+      </c>
+      <c r="B966" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level964</v>
+      </c>
+      <c r="C966" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="D966" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8470000</v>
+      </c>
+      <c r="E966" s="1">
+        <v>0</v>
+      </c>
+      <c r="F966" s="1">
+        <v>1</v>
+      </c>
+      <c r="G966" s="1">
+        <v>16455000000</v>
+      </c>
+      <c r="H966" s="1">
+        <v>11</v>
+      </c>
+      <c r="I966" s="1">
+        <v>165400000</v>
+      </c>
+      <c r="J966" s="1">
+        <v>10</v>
+      </c>
+      <c r="K966" s="1">
+        <v>0</v>
+      </c>
+      <c r="L966" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M966" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="967" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A967" s="1">
+        <v>965</v>
+      </c>
+      <c r="B967" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level965</v>
+      </c>
+      <c r="C967" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="D967" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8480000</v>
+      </c>
+      <c r="E967" s="1">
+        <v>0</v>
+      </c>
+      <c r="F967" s="1">
+        <v>1</v>
+      </c>
+      <c r="G967" s="1">
+        <v>16475000000</v>
+      </c>
+      <c r="H967" s="1">
+        <v>11</v>
+      </c>
+      <c r="I967" s="1">
+        <v>165600000</v>
+      </c>
+      <c r="J967" s="1">
+        <v>10</v>
+      </c>
+      <c r="K967" s="1">
+        <v>0</v>
+      </c>
+      <c r="L967" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M967" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="968" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A968" s="1">
+        <v>966</v>
+      </c>
+      <c r="B968" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level966</v>
+      </c>
+      <c r="C968" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="D968" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8490000</v>
+      </c>
+      <c r="E968" s="1">
+        <v>0</v>
+      </c>
+      <c r="F968" s="1">
+        <v>1</v>
+      </c>
+      <c r="G968" s="1">
+        <v>16495000000</v>
+      </c>
+      <c r="H968" s="1">
+        <v>11</v>
+      </c>
+      <c r="I968" s="1">
+        <v>165800000</v>
+      </c>
+      <c r="J968" s="1">
+        <v>10</v>
+      </c>
+      <c r="K968" s="1">
+        <v>0</v>
+      </c>
+      <c r="L968" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M968" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="969" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A969" s="1">
+        <v>967</v>
+      </c>
+      <c r="B969" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>level967</v>
+      </c>
+      <c r="C969" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="D969" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>8500000</v>
+      </c>
+      <c r="E969" s="1">
+        <v>0</v>
+      </c>
+      <c r="F969" s="1">
+        <v>1</v>
+      </c>
+      <c r="G969" s="1">
+        <v>16515000000</v>
+      </c>
+      <c r="H969" s="1">
+        <v>11</v>
+      </c>
+      <c r="I969" s="1">
+        <v>166000000</v>
+      </c>
+      <c r="J969" s="1">
+        <v>10</v>
+      </c>
+      <c r="K969" s="1">
+        <v>0</v>
+      </c>
+      <c r="L969" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M969" s="1">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Title_Level.xlsx
+++ b/Assets/06.Table/Title_Level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B990CEC-5DFA-4198-B186-D4A6E2FC1941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522988FE-63F0-41A7-988A-2A1E689393CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{DF7A53DF-8BFE-4F9B-B164-E3ACC1906308}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF7A53DF-8BFE-4F9B-B164-E3ACC1906308}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Level" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="1031">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3116,6 +3116,156 @@
   </si>
   <si>
     <t>레벨 8500000달성</t>
+  </si>
+  <si>
+    <t>레벨 8510000달성</t>
+  </si>
+  <si>
+    <t>레벨 8520000달성</t>
+  </si>
+  <si>
+    <t>레벨 8530000달성</t>
+  </si>
+  <si>
+    <t>레벨 8540000달성</t>
+  </si>
+  <si>
+    <t>레벨 8550000달성</t>
+  </si>
+  <si>
+    <t>레벨 8560000달성</t>
+  </si>
+  <si>
+    <t>레벨 8570000달성</t>
+  </si>
+  <si>
+    <t>레벨 8580000달성</t>
+  </si>
+  <si>
+    <t>레벨 8590000달성</t>
+  </si>
+  <si>
+    <t>레벨 8600000달성</t>
+  </si>
+  <si>
+    <t>레벨 8610000달성</t>
+  </si>
+  <si>
+    <t>레벨 8620000달성</t>
+  </si>
+  <si>
+    <t>레벨 8630000달성</t>
+  </si>
+  <si>
+    <t>레벨 8640000달성</t>
+  </si>
+  <si>
+    <t>레벨 8650000달성</t>
+  </si>
+  <si>
+    <t>레벨 8660000달성</t>
+  </si>
+  <si>
+    <t>레벨 8670000달성</t>
+  </si>
+  <si>
+    <t>레벨 8680000달성</t>
+  </si>
+  <si>
+    <t>레벨 8690000달성</t>
+  </si>
+  <si>
+    <t>레벨 8700000달성</t>
+  </si>
+  <si>
+    <t>레벨 8710000달성</t>
+  </si>
+  <si>
+    <t>레벨 8720000달성</t>
+  </si>
+  <si>
+    <t>레벨 8730000달성</t>
+  </si>
+  <si>
+    <t>레벨 8740000달성</t>
+  </si>
+  <si>
+    <t>레벨 8750000달성</t>
+  </si>
+  <si>
+    <t>레벨 8760000달성</t>
+  </si>
+  <si>
+    <t>레벨 8770000달성</t>
+  </si>
+  <si>
+    <t>레벨 8780000달성</t>
+  </si>
+  <si>
+    <t>레벨 8790000달성</t>
+  </si>
+  <si>
+    <t>레벨 8800000달성</t>
+  </si>
+  <si>
+    <t>레벨 8810000달성</t>
+  </si>
+  <si>
+    <t>레벨 8820000달성</t>
+  </si>
+  <si>
+    <t>레벨 8830000달성</t>
+  </si>
+  <si>
+    <t>레벨 8840000달성</t>
+  </si>
+  <si>
+    <t>레벨 8850000달성</t>
+  </si>
+  <si>
+    <t>레벨 8860000달성</t>
+  </si>
+  <si>
+    <t>레벨 8870000달성</t>
+  </si>
+  <si>
+    <t>레벨 8880000달성</t>
+  </si>
+  <si>
+    <t>레벨 8890000달성</t>
+  </si>
+  <si>
+    <t>레벨 8900000달성</t>
+  </si>
+  <si>
+    <t>레벨 8910000달성</t>
+  </si>
+  <si>
+    <t>레벨 8920000달성</t>
+  </si>
+  <si>
+    <t>레벨 8930000달성</t>
+  </si>
+  <si>
+    <t>레벨 8940000달성</t>
+  </si>
+  <si>
+    <t>레벨 8950000달성</t>
+  </si>
+  <si>
+    <t>레벨 8960000달성</t>
+  </si>
+  <si>
+    <t>레벨 8970000달성</t>
+  </si>
+  <si>
+    <t>레벨 8980000달성</t>
+  </si>
+  <si>
+    <t>레벨 8990000달성</t>
+  </si>
+  <si>
+    <t>레벨 9000000달성</t>
   </si>
 </sst>
 </file>
@@ -3508,10 +3658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794A58EA-1598-432A-B5E7-01EB261779BA}">
-  <dimension ref="A1:M969"/>
+  <dimension ref="A1:M1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A927" workbookViewId="0">
-      <selection activeCell="K966" sqref="K966"/>
+    <sheetView tabSelected="1" topLeftCell="A1006" workbookViewId="0">
+      <selection activeCell="E1017" sqref="E1017"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -45188,6 +45338,2156 @@
         <v>11</v>
       </c>
     </row>
+    <row r="970" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A970" s="1">
+        <v>968</v>
+      </c>
+      <c r="B970" s="1" t="str">
+        <f t="shared" ref="B970:B978" si="33">"level"&amp;A970</f>
+        <v>level968</v>
+      </c>
+      <c r="C970" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D970" s="1" t="str">
+        <f t="shared" ref="D970:D978" si="34">MID(C970,4,7)</f>
+        <v>8510000</v>
+      </c>
+      <c r="E970" s="1">
+        <v>0</v>
+      </c>
+      <c r="F970" s="1">
+        <v>1</v>
+      </c>
+      <c r="G970" s="1">
+        <v>16535000000</v>
+      </c>
+      <c r="H970" s="1">
+        <v>11</v>
+      </c>
+      <c r="I970" s="1">
+        <v>166200000</v>
+      </c>
+      <c r="J970" s="1">
+        <v>10</v>
+      </c>
+      <c r="K970" s="1">
+        <v>0</v>
+      </c>
+      <c r="L970" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M970" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="971" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A971" s="1">
+        <v>969</v>
+      </c>
+      <c r="B971" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>level969</v>
+      </c>
+      <c r="C971" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D971" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>8520000</v>
+      </c>
+      <c r="E971" s="1">
+        <v>0</v>
+      </c>
+      <c r="F971" s="1">
+        <v>1</v>
+      </c>
+      <c r="G971" s="1">
+        <v>16555000000</v>
+      </c>
+      <c r="H971" s="1">
+        <v>11</v>
+      </c>
+      <c r="I971" s="1">
+        <v>166400000</v>
+      </c>
+      <c r="J971" s="1">
+        <v>10</v>
+      </c>
+      <c r="K971" s="1">
+        <v>0</v>
+      </c>
+      <c r="L971" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M971" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="972" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A972" s="1">
+        <v>970</v>
+      </c>
+      <c r="B972" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>level970</v>
+      </c>
+      <c r="C972" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="D972" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>8530000</v>
+      </c>
+      <c r="E972" s="1">
+        <v>0</v>
+      </c>
+      <c r="F972" s="1">
+        <v>1</v>
+      </c>
+      <c r="G972" s="1">
+        <v>16575000000</v>
+      </c>
+      <c r="H972" s="1">
+        <v>11</v>
+      </c>
+      <c r="I972" s="1">
+        <v>166600000</v>
+      </c>
+      <c r="J972" s="1">
+        <v>10</v>
+      </c>
+      <c r="K972" s="1">
+        <v>0</v>
+      </c>
+      <c r="L972" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M972" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="973" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A973" s="1">
+        <v>971</v>
+      </c>
+      <c r="B973" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>level971</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="D973" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>8540000</v>
+      </c>
+      <c r="E973" s="1">
+        <v>0</v>
+      </c>
+      <c r="F973" s="1">
+        <v>1</v>
+      </c>
+      <c r="G973" s="1">
+        <v>16595000000</v>
+      </c>
+      <c r="H973" s="1">
+        <v>11</v>
+      </c>
+      <c r="I973" s="1">
+        <v>166800000</v>
+      </c>
+      <c r="J973" s="1">
+        <v>10</v>
+      </c>
+      <c r="K973" s="1">
+        <v>0</v>
+      </c>
+      <c r="L973" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M973" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="974" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A974" s="1">
+        <v>972</v>
+      </c>
+      <c r="B974" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>level972</v>
+      </c>
+      <c r="C974" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="D974" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>8550000</v>
+      </c>
+      <c r="E974" s="1">
+        <v>0</v>
+      </c>
+      <c r="F974" s="1">
+        <v>1</v>
+      </c>
+      <c r="G974" s="1">
+        <v>16615000000</v>
+      </c>
+      <c r="H974" s="1">
+        <v>11</v>
+      </c>
+      <c r="I974" s="1">
+        <v>167000000</v>
+      </c>
+      <c r="J974" s="1">
+        <v>10</v>
+      </c>
+      <c r="K974" s="1">
+        <v>0</v>
+      </c>
+      <c r="L974" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M974" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="975" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A975" s="1">
+        <v>973</v>
+      </c>
+      <c r="B975" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>level973</v>
+      </c>
+      <c r="C975" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="D975" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>8560000</v>
+      </c>
+      <c r="E975" s="1">
+        <v>0</v>
+      </c>
+      <c r="F975" s="1">
+        <v>1</v>
+      </c>
+      <c r="G975" s="1">
+        <v>16635000000</v>
+      </c>
+      <c r="H975" s="1">
+        <v>11</v>
+      </c>
+      <c r="I975" s="1">
+        <v>167200000</v>
+      </c>
+      <c r="J975" s="1">
+        <v>10</v>
+      </c>
+      <c r="K975" s="1">
+        <v>0</v>
+      </c>
+      <c r="L975" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M975" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="976" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A976" s="1">
+        <v>974</v>
+      </c>
+      <c r="B976" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>level974</v>
+      </c>
+      <c r="C976" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D976" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>8570000</v>
+      </c>
+      <c r="E976" s="1">
+        <v>0</v>
+      </c>
+      <c r="F976" s="1">
+        <v>1</v>
+      </c>
+      <c r="G976" s="1">
+        <v>16655000000</v>
+      </c>
+      <c r="H976" s="1">
+        <v>11</v>
+      </c>
+      <c r="I976" s="1">
+        <v>167400000</v>
+      </c>
+      <c r="J976" s="1">
+        <v>10</v>
+      </c>
+      <c r="K976" s="1">
+        <v>0</v>
+      </c>
+      <c r="L976" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M976" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="977" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A977" s="1">
+        <v>975</v>
+      </c>
+      <c r="B977" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>level975</v>
+      </c>
+      <c r="C977" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="D977" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>8580000</v>
+      </c>
+      <c r="E977" s="1">
+        <v>0</v>
+      </c>
+      <c r="F977" s="1">
+        <v>1</v>
+      </c>
+      <c r="G977" s="1">
+        <v>16675000000</v>
+      </c>
+      <c r="H977" s="1">
+        <v>11</v>
+      </c>
+      <c r="I977" s="1">
+        <v>167600000</v>
+      </c>
+      <c r="J977" s="1">
+        <v>10</v>
+      </c>
+      <c r="K977" s="1">
+        <v>0</v>
+      </c>
+      <c r="L977" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M977" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="978" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A978" s="1">
+        <v>976</v>
+      </c>
+      <c r="B978" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>level976</v>
+      </c>
+      <c r="C978" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D978" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>8590000</v>
+      </c>
+      <c r="E978" s="1">
+        <v>0</v>
+      </c>
+      <c r="F978" s="1">
+        <v>1</v>
+      </c>
+      <c r="G978" s="1">
+        <v>16695000000</v>
+      </c>
+      <c r="H978" s="1">
+        <v>11</v>
+      </c>
+      <c r="I978" s="1">
+        <v>167800000</v>
+      </c>
+      <c r="J978" s="1">
+        <v>10</v>
+      </c>
+      <c r="K978" s="1">
+        <v>0</v>
+      </c>
+      <c r="L978" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M978" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="979" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A979" s="1">
+        <v>977</v>
+      </c>
+      <c r="B979" s="1" t="str">
+        <f t="shared" ref="B979:B1008" si="35">"level"&amp;A979</f>
+        <v>level977</v>
+      </c>
+      <c r="C979" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="D979" s="1" t="str">
+        <f t="shared" ref="D979:D1008" si="36">MID(C979,4,7)</f>
+        <v>8600000</v>
+      </c>
+      <c r="E979" s="1">
+        <v>0</v>
+      </c>
+      <c r="F979" s="1">
+        <v>1</v>
+      </c>
+      <c r="G979" s="1">
+        <v>16715000000</v>
+      </c>
+      <c r="H979" s="1">
+        <v>11</v>
+      </c>
+      <c r="I979" s="1">
+        <v>168000000</v>
+      </c>
+      <c r="J979" s="1">
+        <v>10</v>
+      </c>
+      <c r="K979" s="1">
+        <v>0</v>
+      </c>
+      <c r="L979" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M979" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="980" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A980" s="1">
+        <v>978</v>
+      </c>
+      <c r="B980" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level978</v>
+      </c>
+      <c r="C980" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="D980" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8610000</v>
+      </c>
+      <c r="E980" s="1">
+        <v>0</v>
+      </c>
+      <c r="F980" s="1">
+        <v>1</v>
+      </c>
+      <c r="G980" s="1">
+        <v>16735000000</v>
+      </c>
+      <c r="H980" s="1">
+        <v>11</v>
+      </c>
+      <c r="I980" s="1">
+        <v>168200000</v>
+      </c>
+      <c r="J980" s="1">
+        <v>10</v>
+      </c>
+      <c r="K980" s="1">
+        <v>0</v>
+      </c>
+      <c r="L980" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M980" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="981" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A981" s="1">
+        <v>979</v>
+      </c>
+      <c r="B981" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level979</v>
+      </c>
+      <c r="C981" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D981" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8620000</v>
+      </c>
+      <c r="E981" s="1">
+        <v>0</v>
+      </c>
+      <c r="F981" s="1">
+        <v>1</v>
+      </c>
+      <c r="G981" s="1">
+        <v>16755000000</v>
+      </c>
+      <c r="H981" s="1">
+        <v>11</v>
+      </c>
+      <c r="I981" s="1">
+        <v>168400000</v>
+      </c>
+      <c r="J981" s="1">
+        <v>10</v>
+      </c>
+      <c r="K981" s="1">
+        <v>0</v>
+      </c>
+      <c r="L981" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M981" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="982" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A982" s="1">
+        <v>980</v>
+      </c>
+      <c r="B982" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level980</v>
+      </c>
+      <c r="C982" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="D982" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8630000</v>
+      </c>
+      <c r="E982" s="1">
+        <v>0</v>
+      </c>
+      <c r="F982" s="1">
+        <v>1</v>
+      </c>
+      <c r="G982" s="1">
+        <v>16775000000</v>
+      </c>
+      <c r="H982" s="1">
+        <v>11</v>
+      </c>
+      <c r="I982" s="1">
+        <v>168600000</v>
+      </c>
+      <c r="J982" s="1">
+        <v>10</v>
+      </c>
+      <c r="K982" s="1">
+        <v>0</v>
+      </c>
+      <c r="L982" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M982" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="983" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A983" s="1">
+        <v>981</v>
+      </c>
+      <c r="B983" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level981</v>
+      </c>
+      <c r="C983" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="D983" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8640000</v>
+      </c>
+      <c r="E983" s="1">
+        <v>0</v>
+      </c>
+      <c r="F983" s="1">
+        <v>1</v>
+      </c>
+      <c r="G983" s="1">
+        <v>16795000000</v>
+      </c>
+      <c r="H983" s="1">
+        <v>11</v>
+      </c>
+      <c r="I983" s="1">
+        <v>168800000</v>
+      </c>
+      <c r="J983" s="1">
+        <v>10</v>
+      </c>
+      <c r="K983" s="1">
+        <v>0</v>
+      </c>
+      <c r="L983" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M983" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="984" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A984" s="1">
+        <v>982</v>
+      </c>
+      <c r="B984" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level982</v>
+      </c>
+      <c r="C984" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D984" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8650000</v>
+      </c>
+      <c r="E984" s="1">
+        <v>0</v>
+      </c>
+      <c r="F984" s="1">
+        <v>1</v>
+      </c>
+      <c r="G984" s="1">
+        <v>16815000000</v>
+      </c>
+      <c r="H984" s="1">
+        <v>11</v>
+      </c>
+      <c r="I984" s="1">
+        <v>169000000</v>
+      </c>
+      <c r="J984" s="1">
+        <v>10</v>
+      </c>
+      <c r="K984" s="1">
+        <v>0</v>
+      </c>
+      <c r="L984" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M984" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="985" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A985" s="1">
+        <v>983</v>
+      </c>
+      <c r="B985" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level983</v>
+      </c>
+      <c r="C985" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D985" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8660000</v>
+      </c>
+      <c r="E985" s="1">
+        <v>0</v>
+      </c>
+      <c r="F985" s="1">
+        <v>1</v>
+      </c>
+      <c r="G985" s="1">
+        <v>16835000000</v>
+      </c>
+      <c r="H985" s="1">
+        <v>11</v>
+      </c>
+      <c r="I985" s="1">
+        <v>169200000</v>
+      </c>
+      <c r="J985" s="1">
+        <v>10</v>
+      </c>
+      <c r="K985" s="1">
+        <v>0</v>
+      </c>
+      <c r="L985" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M985" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="986" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A986" s="1">
+        <v>984</v>
+      </c>
+      <c r="B986" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level984</v>
+      </c>
+      <c r="C986" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="D986" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8670000</v>
+      </c>
+      <c r="E986" s="1">
+        <v>0</v>
+      </c>
+      <c r="F986" s="1">
+        <v>1</v>
+      </c>
+      <c r="G986" s="1">
+        <v>16855000000</v>
+      </c>
+      <c r="H986" s="1">
+        <v>11</v>
+      </c>
+      <c r="I986" s="1">
+        <v>169400000</v>
+      </c>
+      <c r="J986" s="1">
+        <v>10</v>
+      </c>
+      <c r="K986" s="1">
+        <v>0</v>
+      </c>
+      <c r="L986" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M986" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="987" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A987" s="1">
+        <v>985</v>
+      </c>
+      <c r="B987" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level985</v>
+      </c>
+      <c r="C987" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="D987" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8680000</v>
+      </c>
+      <c r="E987" s="1">
+        <v>0</v>
+      </c>
+      <c r="F987" s="1">
+        <v>1</v>
+      </c>
+      <c r="G987" s="1">
+        <v>16875000000</v>
+      </c>
+      <c r="H987" s="1">
+        <v>11</v>
+      </c>
+      <c r="I987" s="1">
+        <v>169600000</v>
+      </c>
+      <c r="J987" s="1">
+        <v>10</v>
+      </c>
+      <c r="K987" s="1">
+        <v>0</v>
+      </c>
+      <c r="L987" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M987" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="988" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A988" s="1">
+        <v>986</v>
+      </c>
+      <c r="B988" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level986</v>
+      </c>
+      <c r="C988" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D988" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8690000</v>
+      </c>
+      <c r="E988" s="1">
+        <v>0</v>
+      </c>
+      <c r="F988" s="1">
+        <v>1</v>
+      </c>
+      <c r="G988" s="1">
+        <v>16895000000</v>
+      </c>
+      <c r="H988" s="1">
+        <v>11</v>
+      </c>
+      <c r="I988" s="1">
+        <v>169800000</v>
+      </c>
+      <c r="J988" s="1">
+        <v>10</v>
+      </c>
+      <c r="K988" s="1">
+        <v>0</v>
+      </c>
+      <c r="L988" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M988" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="989" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A989" s="1">
+        <v>987</v>
+      </c>
+      <c r="B989" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level987</v>
+      </c>
+      <c r="C989" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D989" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8700000</v>
+      </c>
+      <c r="E989" s="1">
+        <v>0</v>
+      </c>
+      <c r="F989" s="1">
+        <v>1</v>
+      </c>
+      <c r="G989" s="1">
+        <v>16915000000</v>
+      </c>
+      <c r="H989" s="1">
+        <v>11</v>
+      </c>
+      <c r="I989" s="1">
+        <v>170000000</v>
+      </c>
+      <c r="J989" s="1">
+        <v>10</v>
+      </c>
+      <c r="K989" s="1">
+        <v>0</v>
+      </c>
+      <c r="L989" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M989" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="990" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A990" s="1">
+        <v>988</v>
+      </c>
+      <c r="B990" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level988</v>
+      </c>
+      <c r="C990" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D990" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8710000</v>
+      </c>
+      <c r="E990" s="1">
+        <v>0</v>
+      </c>
+      <c r="F990" s="1">
+        <v>1</v>
+      </c>
+      <c r="G990" s="1">
+        <v>16935000000</v>
+      </c>
+      <c r="H990" s="1">
+        <v>11</v>
+      </c>
+      <c r="I990" s="1">
+        <v>170200000</v>
+      </c>
+      <c r="J990" s="1">
+        <v>10</v>
+      </c>
+      <c r="K990" s="1">
+        <v>0</v>
+      </c>
+      <c r="L990" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M990" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="991" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A991" s="1">
+        <v>989</v>
+      </c>
+      <c r="B991" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level989</v>
+      </c>
+      <c r="C991" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D991" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8720000</v>
+      </c>
+      <c r="E991" s="1">
+        <v>0</v>
+      </c>
+      <c r="F991" s="1">
+        <v>1</v>
+      </c>
+      <c r="G991" s="1">
+        <v>16955000000</v>
+      </c>
+      <c r="H991" s="1">
+        <v>11</v>
+      </c>
+      <c r="I991" s="1">
+        <v>170400000</v>
+      </c>
+      <c r="J991" s="1">
+        <v>10</v>
+      </c>
+      <c r="K991" s="1">
+        <v>0</v>
+      </c>
+      <c r="L991" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M991" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="992" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A992" s="1">
+        <v>990</v>
+      </c>
+      <c r="B992" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level990</v>
+      </c>
+      <c r="C992" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D992" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8730000</v>
+      </c>
+      <c r="E992" s="1">
+        <v>0</v>
+      </c>
+      <c r="F992" s="1">
+        <v>1</v>
+      </c>
+      <c r="G992" s="1">
+        <v>16975000000</v>
+      </c>
+      <c r="H992" s="1">
+        <v>11</v>
+      </c>
+      <c r="I992" s="1">
+        <v>170600000</v>
+      </c>
+      <c r="J992" s="1">
+        <v>10</v>
+      </c>
+      <c r="K992" s="1">
+        <v>0</v>
+      </c>
+      <c r="L992" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M992" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="993" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A993" s="1">
+        <v>991</v>
+      </c>
+      <c r="B993" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level991</v>
+      </c>
+      <c r="C993" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D993" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8740000</v>
+      </c>
+      <c r="E993" s="1">
+        <v>0</v>
+      </c>
+      <c r="F993" s="1">
+        <v>1</v>
+      </c>
+      <c r="G993" s="1">
+        <v>16995000000</v>
+      </c>
+      <c r="H993" s="1">
+        <v>11</v>
+      </c>
+      <c r="I993" s="1">
+        <v>170800000</v>
+      </c>
+      <c r="J993" s="1">
+        <v>10</v>
+      </c>
+      <c r="K993" s="1">
+        <v>0</v>
+      </c>
+      <c r="L993" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M993" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="994" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A994" s="1">
+        <v>992</v>
+      </c>
+      <c r="B994" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level992</v>
+      </c>
+      <c r="C994" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D994" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8750000</v>
+      </c>
+      <c r="E994" s="1">
+        <v>0</v>
+      </c>
+      <c r="F994" s="1">
+        <v>1</v>
+      </c>
+      <c r="G994" s="1">
+        <v>17015000000</v>
+      </c>
+      <c r="H994" s="1">
+        <v>11</v>
+      </c>
+      <c r="I994" s="1">
+        <v>171000000</v>
+      </c>
+      <c r="J994" s="1">
+        <v>10</v>
+      </c>
+      <c r="K994" s="1">
+        <v>0</v>
+      </c>
+      <c r="L994" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M994" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="995" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A995" s="1">
+        <v>993</v>
+      </c>
+      <c r="B995" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level993</v>
+      </c>
+      <c r="C995" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D995" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8760000</v>
+      </c>
+      <c r="E995" s="1">
+        <v>0</v>
+      </c>
+      <c r="F995" s="1">
+        <v>1</v>
+      </c>
+      <c r="G995" s="1">
+        <v>17035000000</v>
+      </c>
+      <c r="H995" s="1">
+        <v>11</v>
+      </c>
+      <c r="I995" s="1">
+        <v>171200000</v>
+      </c>
+      <c r="J995" s="1">
+        <v>10</v>
+      </c>
+      <c r="K995" s="1">
+        <v>0</v>
+      </c>
+      <c r="L995" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M995" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="996" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A996" s="1">
+        <v>994</v>
+      </c>
+      <c r="B996" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level994</v>
+      </c>
+      <c r="C996" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D996" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8770000</v>
+      </c>
+      <c r="E996" s="1">
+        <v>0</v>
+      </c>
+      <c r="F996" s="1">
+        <v>1</v>
+      </c>
+      <c r="G996" s="1">
+        <v>17055000000</v>
+      </c>
+      <c r="H996" s="1">
+        <v>11</v>
+      </c>
+      <c r="I996" s="1">
+        <v>171400000</v>
+      </c>
+      <c r="J996" s="1">
+        <v>10</v>
+      </c>
+      <c r="K996" s="1">
+        <v>0</v>
+      </c>
+      <c r="L996" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M996" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="997" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A997" s="1">
+        <v>995</v>
+      </c>
+      <c r="B997" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level995</v>
+      </c>
+      <c r="C997" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D997" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8780000</v>
+      </c>
+      <c r="E997" s="1">
+        <v>0</v>
+      </c>
+      <c r="F997" s="1">
+        <v>1</v>
+      </c>
+      <c r="G997" s="1">
+        <v>17075000000</v>
+      </c>
+      <c r="H997" s="1">
+        <v>11</v>
+      </c>
+      <c r="I997" s="1">
+        <v>171600000</v>
+      </c>
+      <c r="J997" s="1">
+        <v>10</v>
+      </c>
+      <c r="K997" s="1">
+        <v>0</v>
+      </c>
+      <c r="L997" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M997" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="998" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A998" s="1">
+        <v>996</v>
+      </c>
+      <c r="B998" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level996</v>
+      </c>
+      <c r="C998" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D998" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8790000</v>
+      </c>
+      <c r="E998" s="1">
+        <v>0</v>
+      </c>
+      <c r="F998" s="1">
+        <v>1</v>
+      </c>
+      <c r="G998" s="1">
+        <v>17095000000</v>
+      </c>
+      <c r="H998" s="1">
+        <v>11</v>
+      </c>
+      <c r="I998" s="1">
+        <v>171800000</v>
+      </c>
+      <c r="J998" s="1">
+        <v>10</v>
+      </c>
+      <c r="K998" s="1">
+        <v>0</v>
+      </c>
+      <c r="L998" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M998" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="999" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A999" s="1">
+        <v>997</v>
+      </c>
+      <c r="B999" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level997</v>
+      </c>
+      <c r="C999" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D999" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8800000</v>
+      </c>
+      <c r="E999" s="1">
+        <v>0</v>
+      </c>
+      <c r="F999" s="1">
+        <v>1</v>
+      </c>
+      <c r="G999" s="1">
+        <v>17115000000</v>
+      </c>
+      <c r="H999" s="1">
+        <v>11</v>
+      </c>
+      <c r="I999" s="1">
+        <v>172000000</v>
+      </c>
+      <c r="J999" s="1">
+        <v>10</v>
+      </c>
+      <c r="K999" s="1">
+        <v>0</v>
+      </c>
+      <c r="L999" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M999" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1000" s="1">
+        <v>998</v>
+      </c>
+      <c r="B1000" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level998</v>
+      </c>
+      <c r="C1000" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D1000" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8810000</v>
+      </c>
+      <c r="E1000" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1000" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1000" s="1">
+        <v>17135000000</v>
+      </c>
+      <c r="H1000" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1000" s="1">
+        <v>172200000</v>
+      </c>
+      <c r="J1000" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1000" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1000" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1000" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1001" s="1">
+        <v>999</v>
+      </c>
+      <c r="B1001" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level999</v>
+      </c>
+      <c r="C1001" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D1001" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8820000</v>
+      </c>
+      <c r="E1001" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1001" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1001" s="1">
+        <v>17155000000</v>
+      </c>
+      <c r="H1001" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1001" s="1">
+        <v>172400000</v>
+      </c>
+      <c r="J1001" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1001" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1001" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1001" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1002" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B1002" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level1000</v>
+      </c>
+      <c r="C1002" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D1002" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8830000</v>
+      </c>
+      <c r="E1002" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1002" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1002" s="1">
+        <v>17175000000</v>
+      </c>
+      <c r="H1002" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1002" s="1">
+        <v>172600000</v>
+      </c>
+      <c r="J1002" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1002" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1002" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1002" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1003" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B1003" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level1001</v>
+      </c>
+      <c r="C1003" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D1003" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8840000</v>
+      </c>
+      <c r="E1003" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1003" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1003" s="1">
+        <v>17195000000</v>
+      </c>
+      <c r="H1003" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1003" s="1">
+        <v>172800000</v>
+      </c>
+      <c r="J1003" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1003" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1003" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1003" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1004" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B1004" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level1002</v>
+      </c>
+      <c r="C1004" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D1004" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8850000</v>
+      </c>
+      <c r="E1004" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1004" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1004" s="1">
+        <v>17215000000</v>
+      </c>
+      <c r="H1004" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1004" s="1">
+        <v>173000000</v>
+      </c>
+      <c r="J1004" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1004" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1004" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1004" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1005" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B1005" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level1003</v>
+      </c>
+      <c r="C1005" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D1005" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8860000</v>
+      </c>
+      <c r="E1005" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1005" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1005" s="1">
+        <v>17235000000</v>
+      </c>
+      <c r="H1005" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1005" s="1">
+        <v>173200000</v>
+      </c>
+      <c r="J1005" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1005" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1005" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1005" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1006" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B1006" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level1004</v>
+      </c>
+      <c r="C1006" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D1006" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8870000</v>
+      </c>
+      <c r="E1006" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1006" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1006" s="1">
+        <v>17255000000</v>
+      </c>
+      <c r="H1006" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1006" s="1">
+        <v>173400000</v>
+      </c>
+      <c r="J1006" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1006" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1006" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1006" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1007" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B1007" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level1005</v>
+      </c>
+      <c r="C1007" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D1007" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8880000</v>
+      </c>
+      <c r="E1007" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1007" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1007" s="1">
+        <v>17275000000</v>
+      </c>
+      <c r="H1007" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1007" s="1">
+        <v>173600000</v>
+      </c>
+      <c r="J1007" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1007" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1007" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1007" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1008" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B1008" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>level1006</v>
+      </c>
+      <c r="C1008" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1008" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>8890000</v>
+      </c>
+      <c r="E1008" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1008" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1008" s="1">
+        <v>17295000000</v>
+      </c>
+      <c r="H1008" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1008" s="1">
+        <v>173800000</v>
+      </c>
+      <c r="J1008" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1008" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1008" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1008" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1009" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B1009" s="1" t="str">
+        <f t="shared" ref="B1009:B1019" si="37">"level"&amp;A1009</f>
+        <v>level1007</v>
+      </c>
+      <c r="C1009" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D1009" s="1" t="str">
+        <f t="shared" ref="D1009:D1019" si="38">MID(C1009,4,7)</f>
+        <v>8900000</v>
+      </c>
+      <c r="E1009" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1009" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1009" s="1">
+        <v>17315000000</v>
+      </c>
+      <c r="H1009" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1009" s="1">
+        <v>174000000</v>
+      </c>
+      <c r="J1009" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1009" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1009" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1009" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1010" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B1010" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>level1008</v>
+      </c>
+      <c r="C1010" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1010" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>8910000</v>
+      </c>
+      <c r="E1010" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1010" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1010" s="1">
+        <v>17335000000</v>
+      </c>
+      <c r="H1010" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1010" s="1">
+        <v>174200000</v>
+      </c>
+      <c r="J1010" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1010" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1010" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1010" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1011" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B1011" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>level1009</v>
+      </c>
+      <c r="C1011" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1011" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>8920000</v>
+      </c>
+      <c r="E1011" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1011" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1011" s="1">
+        <v>17355000000</v>
+      </c>
+      <c r="H1011" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1011" s="1">
+        <v>174400000</v>
+      </c>
+      <c r="J1011" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1011" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1011" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1011" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1012" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B1012" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>level1010</v>
+      </c>
+      <c r="C1012" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1012" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>8930000</v>
+      </c>
+      <c r="E1012" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1012" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1012" s="1">
+        <v>17375000000</v>
+      </c>
+      <c r="H1012" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1012" s="1">
+        <v>174600000</v>
+      </c>
+      <c r="J1012" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1012" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1012" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1012" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1013" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B1013" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>level1011</v>
+      </c>
+      <c r="C1013" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D1013" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>8940000</v>
+      </c>
+      <c r="E1013" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1013" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1013" s="1">
+        <v>17395000000</v>
+      </c>
+      <c r="H1013" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1013" s="1">
+        <v>174800000</v>
+      </c>
+      <c r="J1013" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1013" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1013" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1013" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1014" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B1014" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>level1012</v>
+      </c>
+      <c r="C1014" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D1014" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>8950000</v>
+      </c>
+      <c r="E1014" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1014" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1014" s="1">
+        <v>17415000000</v>
+      </c>
+      <c r="H1014" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1014" s="1">
+        <v>175000000</v>
+      </c>
+      <c r="J1014" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1014" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1014" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1014" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1015" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B1015" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>level1013</v>
+      </c>
+      <c r="C1015" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D1015" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>8960000</v>
+      </c>
+      <c r="E1015" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1015" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1015" s="1">
+        <v>17435000000</v>
+      </c>
+      <c r="H1015" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1015" s="1">
+        <v>175200000</v>
+      </c>
+      <c r="J1015" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1015" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1015" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1015" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1016" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B1016" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>level1014</v>
+      </c>
+      <c r="C1016" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1016" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>8970000</v>
+      </c>
+      <c r="E1016" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1016" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1016" s="1">
+        <v>17455000000</v>
+      </c>
+      <c r="H1016" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1016" s="1">
+        <v>175400000</v>
+      </c>
+      <c r="J1016" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1016" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1016" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1016" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1017" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B1017" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>level1015</v>
+      </c>
+      <c r="C1017" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D1017" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>8980000</v>
+      </c>
+      <c r="E1017" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1017" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1017" s="1">
+        <v>17475000000</v>
+      </c>
+      <c r="H1017" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1017" s="1">
+        <v>175600000</v>
+      </c>
+      <c r="J1017" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1017" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1017" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1017" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1018" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B1018" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>level1016</v>
+      </c>
+      <c r="C1018" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D1018" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>8990000</v>
+      </c>
+      <c r="E1018" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1018" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1018" s="1">
+        <v>17495000000</v>
+      </c>
+      <c r="H1018" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1018" s="1">
+        <v>175800000</v>
+      </c>
+      <c r="J1018" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1018" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1018" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1018" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1019" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B1019" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>level1017</v>
+      </c>
+      <c r="C1019" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D1019" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>9000000</v>
+      </c>
+      <c r="E1019" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1019" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1019" s="1">
+        <v>17515000000</v>
+      </c>
+      <c r="H1019" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1019" s="1">
+        <v>176000000</v>
+      </c>
+      <c r="J1019" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1019" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1019" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1019" s="1">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Title_Level.xlsx
+++ b/Assets/06.Table/Title_Level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522988FE-63F0-41A7-988A-2A1E689393CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3457C6-2ABB-4445-8C10-586A5A22D284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF7A53DF-8BFE-4F9B-B164-E3ACC1906308}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF7A53DF-8BFE-4F9B-B164-E3ACC1906308}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Level" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="1081">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3266,6 +3266,156 @@
   </si>
   <si>
     <t>레벨 9000000달성</t>
+  </si>
+  <si>
+    <t>레벨 9010000달성</t>
+  </si>
+  <si>
+    <t>레벨 9020000달성</t>
+  </si>
+  <si>
+    <t>레벨 9030000달성</t>
+  </si>
+  <si>
+    <t>레벨 9040000달성</t>
+  </si>
+  <si>
+    <t>레벨 9050000달성</t>
+  </si>
+  <si>
+    <t>레벨 9060000달성</t>
+  </si>
+  <si>
+    <t>레벨 9070000달성</t>
+  </si>
+  <si>
+    <t>레벨 9080000달성</t>
+  </si>
+  <si>
+    <t>레벨 9090000달성</t>
+  </si>
+  <si>
+    <t>레벨 9100000달성</t>
+  </si>
+  <si>
+    <t>레벨 9110000달성</t>
+  </si>
+  <si>
+    <t>레벨 9120000달성</t>
+  </si>
+  <si>
+    <t>레벨 9130000달성</t>
+  </si>
+  <si>
+    <t>레벨 9140000달성</t>
+  </si>
+  <si>
+    <t>레벨 9150000달성</t>
+  </si>
+  <si>
+    <t>레벨 9160000달성</t>
+  </si>
+  <si>
+    <t>레벨 9170000달성</t>
+  </si>
+  <si>
+    <t>레벨 9180000달성</t>
+  </si>
+  <si>
+    <t>레벨 9190000달성</t>
+  </si>
+  <si>
+    <t>레벨 9200000달성</t>
+  </si>
+  <si>
+    <t>레벨 9210000달성</t>
+  </si>
+  <si>
+    <t>레벨 9220000달성</t>
+  </si>
+  <si>
+    <t>레벨 9230000달성</t>
+  </si>
+  <si>
+    <t>레벨 9240000달성</t>
+  </si>
+  <si>
+    <t>레벨 9250000달성</t>
+  </si>
+  <si>
+    <t>레벨 9260000달성</t>
+  </si>
+  <si>
+    <t>레벨 9270000달성</t>
+  </si>
+  <si>
+    <t>레벨 9280000달성</t>
+  </si>
+  <si>
+    <t>레벨 9290000달성</t>
+  </si>
+  <si>
+    <t>레벨 9300000달성</t>
+  </si>
+  <si>
+    <t>레벨 9310000달성</t>
+  </si>
+  <si>
+    <t>레벨 9320000달성</t>
+  </si>
+  <si>
+    <t>레벨 9330000달성</t>
+  </si>
+  <si>
+    <t>레벨 9340000달성</t>
+  </si>
+  <si>
+    <t>레벨 9350000달성</t>
+  </si>
+  <si>
+    <t>레벨 9360000달성</t>
+  </si>
+  <si>
+    <t>레벨 9370000달성</t>
+  </si>
+  <si>
+    <t>레벨 9380000달성</t>
+  </si>
+  <si>
+    <t>레벨 9390000달성</t>
+  </si>
+  <si>
+    <t>레벨 9400000달성</t>
+  </si>
+  <si>
+    <t>레벨 9410000달성</t>
+  </si>
+  <si>
+    <t>레벨 9420000달성</t>
+  </si>
+  <si>
+    <t>레벨 9430000달성</t>
+  </si>
+  <si>
+    <t>레벨 9440000달성</t>
+  </si>
+  <si>
+    <t>레벨 9450000달성</t>
+  </si>
+  <si>
+    <t>레벨 9460000달성</t>
+  </si>
+  <si>
+    <t>레벨 9470000달성</t>
+  </si>
+  <si>
+    <t>레벨 9480000달성</t>
+  </si>
+  <si>
+    <t>레벨 9490000달성</t>
+  </si>
+  <si>
+    <t>레벨 9500000달성</t>
   </si>
 </sst>
 </file>
@@ -3658,10 +3808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794A58EA-1598-432A-B5E7-01EB261779BA}">
-  <dimension ref="A1:M1019"/>
+  <dimension ref="A1:M1069"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1006" workbookViewId="0">
-      <selection activeCell="E1017" sqref="E1017"/>
+    <sheetView tabSelected="1" topLeftCell="A1048" workbookViewId="0">
+      <selection activeCell="E1063" sqref="E1063"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -47488,6 +47638,2156 @@
         <v>11</v>
       </c>
     </row>
+    <row r="1020" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1020" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B1020" s="1" t="str">
+        <f t="shared" ref="B1020:B1049" si="39">"level"&amp;A1020</f>
+        <v>level1018</v>
+      </c>
+      <c r="C1020" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1020" s="1" t="str">
+        <f t="shared" ref="D1020:D1049" si="40">MID(C1020,4,7)</f>
+        <v>9010000</v>
+      </c>
+      <c r="E1020" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1020" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1020" s="1">
+        <v>17535000000</v>
+      </c>
+      <c r="H1020" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1020" s="1">
+        <v>176200000</v>
+      </c>
+      <c r="J1020" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1020" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1020" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1020" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1021" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B1021" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1019</v>
+      </c>
+      <c r="C1021" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D1021" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9020000</v>
+      </c>
+      <c r="E1021" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1021" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1021" s="1">
+        <v>17555000000</v>
+      </c>
+      <c r="H1021" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1021" s="1">
+        <v>176400000</v>
+      </c>
+      <c r="J1021" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1021" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1021" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1021" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1022" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B1022" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1020</v>
+      </c>
+      <c r="C1022" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1022" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9030000</v>
+      </c>
+      <c r="E1022" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1022" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1022" s="1">
+        <v>17575000000</v>
+      </c>
+      <c r="H1022" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1022" s="1">
+        <v>176600000</v>
+      </c>
+      <c r="J1022" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1022" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1022" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1022" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1023" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B1023" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1021</v>
+      </c>
+      <c r="C1023" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D1023" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9040000</v>
+      </c>
+      <c r="E1023" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1023" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1023" s="1">
+        <v>17595000000</v>
+      </c>
+      <c r="H1023" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1023" s="1">
+        <v>176800000</v>
+      </c>
+      <c r="J1023" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1023" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1023" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1023" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1024" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B1024" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1022</v>
+      </c>
+      <c r="C1024" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D1024" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9050000</v>
+      </c>
+      <c r="E1024" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1024" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1024" s="1">
+        <v>17615000000</v>
+      </c>
+      <c r="H1024" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1024" s="1">
+        <v>177000000</v>
+      </c>
+      <c r="J1024" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1024" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1024" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1024" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1025" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B1025" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1023</v>
+      </c>
+      <c r="C1025" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D1025" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9060000</v>
+      </c>
+      <c r="E1025" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1025" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1025" s="1">
+        <v>17635000000</v>
+      </c>
+      <c r="H1025" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1025" s="1">
+        <v>177200000</v>
+      </c>
+      <c r="J1025" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1025" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1025" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1025" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1026" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B1026" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1024</v>
+      </c>
+      <c r="C1026" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D1026" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9070000</v>
+      </c>
+      <c r="E1026" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1026" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1026" s="1">
+        <v>17655000000</v>
+      </c>
+      <c r="H1026" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1026" s="1">
+        <v>177400000</v>
+      </c>
+      <c r="J1026" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1026" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1026" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1026" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1027" s="1">
+        <v>1025</v>
+      </c>
+      <c r="B1027" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1025</v>
+      </c>
+      <c r="C1027" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D1027" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9080000</v>
+      </c>
+      <c r="E1027" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1027" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1027" s="1">
+        <v>17675000000</v>
+      </c>
+      <c r="H1027" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1027" s="1">
+        <v>177600000</v>
+      </c>
+      <c r="J1027" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1027" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1027" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1027" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1028" s="1">
+        <v>1026</v>
+      </c>
+      <c r="B1028" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1026</v>
+      </c>
+      <c r="C1028" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D1028" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9090000</v>
+      </c>
+      <c r="E1028" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1028" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1028" s="1">
+        <v>17695000000</v>
+      </c>
+      <c r="H1028" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1028" s="1">
+        <v>177800000</v>
+      </c>
+      <c r="J1028" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1028" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1028" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1028" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1029" s="1">
+        <v>1027</v>
+      </c>
+      <c r="B1029" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1027</v>
+      </c>
+      <c r="C1029" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D1029" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9100000</v>
+      </c>
+      <c r="E1029" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1029" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1029" s="1">
+        <v>17715000000</v>
+      </c>
+      <c r="H1029" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1029" s="1">
+        <v>178000000</v>
+      </c>
+      <c r="J1029" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1029" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1029" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1029" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1030" s="1">
+        <v>1028</v>
+      </c>
+      <c r="B1030" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1028</v>
+      </c>
+      <c r="C1030" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D1030" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9110000</v>
+      </c>
+      <c r="E1030" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1030" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1030" s="1">
+        <v>17735000000</v>
+      </c>
+      <c r="H1030" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1030" s="1">
+        <v>178200000</v>
+      </c>
+      <c r="J1030" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1030" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1030" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1030" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1031" s="1">
+        <v>1029</v>
+      </c>
+      <c r="B1031" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1029</v>
+      </c>
+      <c r="C1031" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D1031" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9120000</v>
+      </c>
+      <c r="E1031" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1031" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1031" s="1">
+        <v>17755000000</v>
+      </c>
+      <c r="H1031" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1031" s="1">
+        <v>178400000</v>
+      </c>
+      <c r="J1031" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1031" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1031" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1031" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1032" s="1">
+        <v>1030</v>
+      </c>
+      <c r="B1032" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1030</v>
+      </c>
+      <c r="C1032" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D1032" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9130000</v>
+      </c>
+      <c r="E1032" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1032" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1032" s="1">
+        <v>17775000000</v>
+      </c>
+      <c r="H1032" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1032" s="1">
+        <v>178600000</v>
+      </c>
+      <c r="J1032" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1032" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1032" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1032" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1033" s="1">
+        <v>1031</v>
+      </c>
+      <c r="B1033" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1031</v>
+      </c>
+      <c r="C1033" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1033" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9140000</v>
+      </c>
+      <c r="E1033" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1033" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1033" s="1">
+        <v>17795000000</v>
+      </c>
+      <c r="H1033" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1033" s="1">
+        <v>178800000</v>
+      </c>
+      <c r="J1033" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1033" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1033" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1033" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1034" s="1">
+        <v>1032</v>
+      </c>
+      <c r="B1034" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1032</v>
+      </c>
+      <c r="C1034" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D1034" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9150000</v>
+      </c>
+      <c r="E1034" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1034" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1034" s="1">
+        <v>17815000000</v>
+      </c>
+      <c r="H1034" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1034" s="1">
+        <v>179000000</v>
+      </c>
+      <c r="J1034" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1034" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1034" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1034" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1035" s="1">
+        <v>1033</v>
+      </c>
+      <c r="B1035" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1033</v>
+      </c>
+      <c r="C1035" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D1035" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9160000</v>
+      </c>
+      <c r="E1035" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1035" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1035" s="1">
+        <v>17835000000</v>
+      </c>
+      <c r="H1035" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1035" s="1">
+        <v>179200000</v>
+      </c>
+      <c r="J1035" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1035" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1035" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1035" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1036" s="1">
+        <v>1034</v>
+      </c>
+      <c r="B1036" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1034</v>
+      </c>
+      <c r="C1036" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D1036" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9170000</v>
+      </c>
+      <c r="E1036" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1036" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1036" s="1">
+        <v>17855000000</v>
+      </c>
+      <c r="H1036" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1036" s="1">
+        <v>179400000</v>
+      </c>
+      <c r="J1036" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1036" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1036" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1036" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1037" s="1">
+        <v>1035</v>
+      </c>
+      <c r="B1037" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1035</v>
+      </c>
+      <c r="C1037" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D1037" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9180000</v>
+      </c>
+      <c r="E1037" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1037" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1037" s="1">
+        <v>17875000000</v>
+      </c>
+      <c r="H1037" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1037" s="1">
+        <v>179600000</v>
+      </c>
+      <c r="J1037" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1037" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1037" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1037" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1038" s="1">
+        <v>1036</v>
+      </c>
+      <c r="B1038" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1036</v>
+      </c>
+      <c r="C1038" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D1038" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9190000</v>
+      </c>
+      <c r="E1038" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1038" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1038" s="1">
+        <v>17895000000</v>
+      </c>
+      <c r="H1038" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1038" s="1">
+        <v>179800000</v>
+      </c>
+      <c r="J1038" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1038" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1038" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1038" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1039" s="1">
+        <v>1037</v>
+      </c>
+      <c r="B1039" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1037</v>
+      </c>
+      <c r="C1039" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D1039" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9200000</v>
+      </c>
+      <c r="E1039" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1039" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1039" s="1">
+        <v>17915000000</v>
+      </c>
+      <c r="H1039" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1039" s="1">
+        <v>180000000</v>
+      </c>
+      <c r="J1039" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1039" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1039" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1039" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1040" s="1">
+        <v>1038</v>
+      </c>
+      <c r="B1040" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1038</v>
+      </c>
+      <c r="C1040" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1040" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9210000</v>
+      </c>
+      <c r="E1040" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1040" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1040" s="1">
+        <v>17935000000</v>
+      </c>
+      <c r="H1040" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1040" s="1">
+        <v>180200000</v>
+      </c>
+      <c r="J1040" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1040" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1040" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1040" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1041" s="1">
+        <v>1039</v>
+      </c>
+      <c r="B1041" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1039</v>
+      </c>
+      <c r="C1041" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D1041" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9220000</v>
+      </c>
+      <c r="E1041" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1041" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1041" s="1">
+        <v>17955000000</v>
+      </c>
+      <c r="H1041" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1041" s="1">
+        <v>180400000</v>
+      </c>
+      <c r="J1041" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1041" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1041" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1041" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1042" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B1042" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1040</v>
+      </c>
+      <c r="C1042" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D1042" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9230000</v>
+      </c>
+      <c r="E1042" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1042" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1042" s="1">
+        <v>17975000000</v>
+      </c>
+      <c r="H1042" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1042" s="1">
+        <v>180600000</v>
+      </c>
+      <c r="J1042" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1042" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1042" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1042" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1043" s="1">
+        <v>1041</v>
+      </c>
+      <c r="B1043" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1041</v>
+      </c>
+      <c r="C1043" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D1043" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9240000</v>
+      </c>
+      <c r="E1043" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1043" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1043" s="1">
+        <v>17995000000</v>
+      </c>
+      <c r="H1043" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1043" s="1">
+        <v>180800000</v>
+      </c>
+      <c r="J1043" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1043" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1043" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1043" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1044" s="1">
+        <v>1042</v>
+      </c>
+      <c r="B1044" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1042</v>
+      </c>
+      <c r="C1044" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D1044" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9250000</v>
+      </c>
+      <c r="E1044" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1044" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1044" s="1">
+        <v>18015000000</v>
+      </c>
+      <c r="H1044" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1044" s="1">
+        <v>181000000</v>
+      </c>
+      <c r="J1044" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1044" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1044" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1044" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1045" s="1">
+        <v>1043</v>
+      </c>
+      <c r="B1045" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1043</v>
+      </c>
+      <c r="C1045" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1045" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9260000</v>
+      </c>
+      <c r="E1045" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1045" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1045" s="1">
+        <v>18035000000</v>
+      </c>
+      <c r="H1045" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1045" s="1">
+        <v>181200000</v>
+      </c>
+      <c r="J1045" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1045" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1045" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1045" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1046" s="1">
+        <v>1044</v>
+      </c>
+      <c r="B1046" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1044</v>
+      </c>
+      <c r="C1046" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D1046" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9270000</v>
+      </c>
+      <c r="E1046" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1046" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1046" s="1">
+        <v>18055000000</v>
+      </c>
+      <c r="H1046" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1046" s="1">
+        <v>181400000</v>
+      </c>
+      <c r="J1046" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1046" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1046" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1046" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1047" s="1">
+        <v>1045</v>
+      </c>
+      <c r="B1047" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1045</v>
+      </c>
+      <c r="C1047" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1047" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9280000</v>
+      </c>
+      <c r="E1047" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1047" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1047" s="1">
+        <v>18075000000</v>
+      </c>
+      <c r="H1047" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1047" s="1">
+        <v>181600000</v>
+      </c>
+      <c r="J1047" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1047" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1047" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1047" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1048" s="1">
+        <v>1046</v>
+      </c>
+      <c r="B1048" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1046</v>
+      </c>
+      <c r="C1048" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D1048" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9290000</v>
+      </c>
+      <c r="E1048" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1048" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1048" s="1">
+        <v>18095000000</v>
+      </c>
+      <c r="H1048" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1048" s="1">
+        <v>181800000</v>
+      </c>
+      <c r="J1048" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1048" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1048" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1048" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1049" s="1">
+        <v>1047</v>
+      </c>
+      <c r="B1049" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>level1047</v>
+      </c>
+      <c r="C1049" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D1049" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>9300000</v>
+      </c>
+      <c r="E1049" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1049" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1049" s="1">
+        <v>18115000000</v>
+      </c>
+      <c r="H1049" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1049" s="1">
+        <v>182000000</v>
+      </c>
+      <c r="J1049" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1049" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1049" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1049" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1050" s="1">
+        <v>1048</v>
+      </c>
+      <c r="B1050" s="1" t="str">
+        <f t="shared" ref="B1050:B1069" si="41">"level"&amp;A1050</f>
+        <v>level1048</v>
+      </c>
+      <c r="C1050" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D1050" s="1" t="str">
+        <f t="shared" ref="D1050:D1069" si="42">MID(C1050,4,7)</f>
+        <v>9310000</v>
+      </c>
+      <c r="E1050" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1050" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1050" s="1">
+        <v>18135000000</v>
+      </c>
+      <c r="H1050" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1050" s="1">
+        <v>182200000</v>
+      </c>
+      <c r="J1050" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1050" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1050" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1050" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1051" s="1">
+        <v>1049</v>
+      </c>
+      <c r="B1051" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1049</v>
+      </c>
+      <c r="C1051" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D1051" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9320000</v>
+      </c>
+      <c r="E1051" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1051" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1051" s="1">
+        <v>18155000000</v>
+      </c>
+      <c r="H1051" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1051" s="1">
+        <v>182400000</v>
+      </c>
+      <c r="J1051" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1051" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1051" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1051" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1052" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B1052" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1050</v>
+      </c>
+      <c r="C1052" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D1052" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9330000</v>
+      </c>
+      <c r="E1052" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1052" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1052" s="1">
+        <v>18175000000</v>
+      </c>
+      <c r="H1052" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1052" s="1">
+        <v>182600000</v>
+      </c>
+      <c r="J1052" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1052" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1052" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1052" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1053" s="1">
+        <v>1051</v>
+      </c>
+      <c r="B1053" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1051</v>
+      </c>
+      <c r="C1053" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D1053" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9340000</v>
+      </c>
+      <c r="E1053" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1053" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1053" s="1">
+        <v>18195000000</v>
+      </c>
+      <c r="H1053" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1053" s="1">
+        <v>182800000</v>
+      </c>
+      <c r="J1053" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1053" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1053" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1053" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1054" s="1">
+        <v>1052</v>
+      </c>
+      <c r="B1054" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1052</v>
+      </c>
+      <c r="C1054" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D1054" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9350000</v>
+      </c>
+      <c r="E1054" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1054" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1054" s="1">
+        <v>18215000000</v>
+      </c>
+      <c r="H1054" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1054" s="1">
+        <v>183000000</v>
+      </c>
+      <c r="J1054" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1054" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1054" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1054" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1055" s="1">
+        <v>1053</v>
+      </c>
+      <c r="B1055" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1053</v>
+      </c>
+      <c r="C1055" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1055" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9360000</v>
+      </c>
+      <c r="E1055" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1055" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1055" s="1">
+        <v>18235000000</v>
+      </c>
+      <c r="H1055" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1055" s="1">
+        <v>183200000</v>
+      </c>
+      <c r="J1055" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1055" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1055" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1055" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1056" s="1">
+        <v>1054</v>
+      </c>
+      <c r="B1056" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1054</v>
+      </c>
+      <c r="C1056" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D1056" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9370000</v>
+      </c>
+      <c r="E1056" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1056" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1056" s="1">
+        <v>18255000000</v>
+      </c>
+      <c r="H1056" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1056" s="1">
+        <v>183400000</v>
+      </c>
+      <c r="J1056" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1056" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1056" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1056" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1057" s="1">
+        <v>1055</v>
+      </c>
+      <c r="B1057" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1055</v>
+      </c>
+      <c r="C1057" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D1057" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9380000</v>
+      </c>
+      <c r="E1057" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1057" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1057" s="1">
+        <v>18275000000</v>
+      </c>
+      <c r="H1057" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1057" s="1">
+        <v>183600000</v>
+      </c>
+      <c r="J1057" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1057" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1057" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1057" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1058" s="1">
+        <v>1056</v>
+      </c>
+      <c r="B1058" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1056</v>
+      </c>
+      <c r="C1058" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D1058" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9390000</v>
+      </c>
+      <c r="E1058" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1058" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1058" s="1">
+        <v>18295000000</v>
+      </c>
+      <c r="H1058" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1058" s="1">
+        <v>183800000</v>
+      </c>
+      <c r="J1058" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1058" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1058" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1058" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1059" s="1">
+        <v>1057</v>
+      </c>
+      <c r="B1059" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1057</v>
+      </c>
+      <c r="C1059" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D1059" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9400000</v>
+      </c>
+      <c r="E1059" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1059" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1059" s="1">
+        <v>18315000000</v>
+      </c>
+      <c r="H1059" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1059" s="1">
+        <v>184000000</v>
+      </c>
+      <c r="J1059" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1059" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1059" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1059" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1060" s="1">
+        <v>1058</v>
+      </c>
+      <c r="B1060" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1058</v>
+      </c>
+      <c r="C1060" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D1060" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9410000</v>
+      </c>
+      <c r="E1060" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1060" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1060" s="1">
+        <v>18335000000</v>
+      </c>
+      <c r="H1060" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1060" s="1">
+        <v>184200000</v>
+      </c>
+      <c r="J1060" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1060" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1060" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1060" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1061" s="1">
+        <v>1059</v>
+      </c>
+      <c r="B1061" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1059</v>
+      </c>
+      <c r="C1061" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D1061" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9420000</v>
+      </c>
+      <c r="E1061" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1061" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1061" s="1">
+        <v>18355000000</v>
+      </c>
+      <c r="H1061" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1061" s="1">
+        <v>184400000</v>
+      </c>
+      <c r="J1061" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1061" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1061" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1061" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1062" s="1">
+        <v>1060</v>
+      </c>
+      <c r="B1062" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1060</v>
+      </c>
+      <c r="C1062" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1062" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9430000</v>
+      </c>
+      <c r="E1062" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1062" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1062" s="1">
+        <v>18375000000</v>
+      </c>
+      <c r="H1062" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1062" s="1">
+        <v>184600000</v>
+      </c>
+      <c r="J1062" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1062" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1062" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1062" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1063" s="1">
+        <v>1061</v>
+      </c>
+      <c r="B1063" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1061</v>
+      </c>
+      <c r="C1063" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D1063" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9440000</v>
+      </c>
+      <c r="E1063" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1063" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1063" s="1">
+        <v>18395000000</v>
+      </c>
+      <c r="H1063" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1063" s="1">
+        <v>184800000</v>
+      </c>
+      <c r="J1063" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1063" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1063" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1063" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1064" s="1">
+        <v>1062</v>
+      </c>
+      <c r="B1064" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1062</v>
+      </c>
+      <c r="C1064" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D1064" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9450000</v>
+      </c>
+      <c r="E1064" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1064" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1064" s="1">
+        <v>18415000000</v>
+      </c>
+      <c r="H1064" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1064" s="1">
+        <v>185000000</v>
+      </c>
+      <c r="J1064" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1064" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1064" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1064" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1065" s="1">
+        <v>1063</v>
+      </c>
+      <c r="B1065" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1063</v>
+      </c>
+      <c r="C1065" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D1065" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9460000</v>
+      </c>
+      <c r="E1065" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1065" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1065" s="1">
+        <v>18435000000</v>
+      </c>
+      <c r="H1065" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1065" s="1">
+        <v>185200000</v>
+      </c>
+      <c r="J1065" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1065" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1065" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1065" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1066" s="1">
+        <v>1064</v>
+      </c>
+      <c r="B1066" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1064</v>
+      </c>
+      <c r="C1066" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D1066" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9470000</v>
+      </c>
+      <c r="E1066" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1066" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1066" s="1">
+        <v>18455000000</v>
+      </c>
+      <c r="H1066" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1066" s="1">
+        <v>185400000</v>
+      </c>
+      <c r="J1066" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1066" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1066" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1066" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1067" s="1">
+        <v>1065</v>
+      </c>
+      <c r="B1067" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1065</v>
+      </c>
+      <c r="C1067" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1067" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9480000</v>
+      </c>
+      <c r="E1067" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1067" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1067" s="1">
+        <v>18475000000</v>
+      </c>
+      <c r="H1067" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1067" s="1">
+        <v>185600000</v>
+      </c>
+      <c r="J1067" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1067" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1067" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1067" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1068" s="1">
+        <v>1066</v>
+      </c>
+      <c r="B1068" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1066</v>
+      </c>
+      <c r="C1068" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D1068" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9490000</v>
+      </c>
+      <c r="E1068" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1068" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1068" s="1">
+        <v>18495000000</v>
+      </c>
+      <c r="H1068" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1068" s="1">
+        <v>185800000</v>
+      </c>
+      <c r="J1068" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1068" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1068" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1068" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1069" s="1">
+        <v>1067</v>
+      </c>
+      <c r="B1069" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>level1067</v>
+      </c>
+      <c r="C1069" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D1069" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>9500000</v>
+      </c>
+      <c r="E1069" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1069" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1069" s="1">
+        <v>18515000000</v>
+      </c>
+      <c r="H1069" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1069" s="1">
+        <v>186000000</v>
+      </c>
+      <c r="J1069" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1069" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1069" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1069" s="1">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Title_Level.xlsx
+++ b/Assets/06.Table/Title_Level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3457C6-2ABB-4445-8C10-586A5A22D284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40294C2F-8378-43ED-8628-ADDD6AC8D39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF7A53DF-8BFE-4F9B-B164-E3ACC1906308}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF7A53DF-8BFE-4F9B-B164-E3ACC1906308}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Level" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="1181">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3416,6 +3416,307 @@
   </si>
   <si>
     <t>레벨 9500000달성</t>
+  </si>
+  <si>
+    <t>레벨 9510000달성</t>
+  </si>
+  <si>
+    <t>레벨 9520000달성</t>
+  </si>
+  <si>
+    <t>레벨 9530000달성</t>
+  </si>
+  <si>
+    <t>레벨 9540000달성</t>
+  </si>
+  <si>
+    <t>레벨 9550000달성</t>
+  </si>
+  <si>
+    <t>레벨 9560000달성</t>
+  </si>
+  <si>
+    <t>레벨 9570000달성</t>
+  </si>
+  <si>
+    <t>레벨 9580000달성</t>
+  </si>
+  <si>
+    <t>레벨 9590000달성</t>
+  </si>
+  <si>
+    <t>레벨 9600000달성</t>
+  </si>
+  <si>
+    <t>레벨 9610000달성</t>
+  </si>
+  <si>
+    <t>레벨 9620000달성</t>
+  </si>
+  <si>
+    <t>레벨 9630000달성</t>
+  </si>
+  <si>
+    <t>레벨 9640000달성</t>
+  </si>
+  <si>
+    <t>레벨 9650000달성</t>
+  </si>
+  <si>
+    <t>레벨 9660000달성</t>
+  </si>
+  <si>
+    <t>레벨 9670000달성</t>
+  </si>
+  <si>
+    <t>레벨 9680000달성</t>
+  </si>
+  <si>
+    <t>레벨 9690000달성</t>
+  </si>
+  <si>
+    <t>레벨 9700000달성</t>
+  </si>
+  <si>
+    <t>레벨 9710000달성</t>
+  </si>
+  <si>
+    <t>레벨 9720000달성</t>
+  </si>
+  <si>
+    <t>레벨 9730000달성</t>
+  </si>
+  <si>
+    <t>레벨 9740000달성</t>
+  </si>
+  <si>
+    <t>레벨 9750000달성</t>
+  </si>
+  <si>
+    <t>레벨 9760000달성</t>
+  </si>
+  <si>
+    <t>레벨 9770000달성</t>
+  </si>
+  <si>
+    <t>레벨 9780000달성</t>
+  </si>
+  <si>
+    <t>레벨 9790000달성</t>
+  </si>
+  <si>
+    <t>레벨 9800000달성</t>
+  </si>
+  <si>
+    <t>레벨 9810000달성</t>
+  </si>
+  <si>
+    <t>레벨 9820000달성</t>
+  </si>
+  <si>
+    <t>레벨 9830000달성</t>
+  </si>
+  <si>
+    <t>레벨 9840000달성</t>
+  </si>
+  <si>
+    <t>레벨 9850000달성</t>
+  </si>
+  <si>
+    <t>레벨 9860000달성</t>
+  </si>
+  <si>
+    <t>레벨 9870000달성</t>
+  </si>
+  <si>
+    <t>레벨 9880000달성</t>
+  </si>
+  <si>
+    <t>레벨 9890000달성</t>
+  </si>
+  <si>
+    <t>레벨 9900000달성</t>
+  </si>
+  <si>
+    <t>레벨 9910000달성</t>
+  </si>
+  <si>
+    <t>레벨 9920000달성</t>
+  </si>
+  <si>
+    <t>레벨 9930000달성</t>
+  </si>
+  <si>
+    <t>레벨 9940000달성</t>
+  </si>
+  <si>
+    <t>레벨 9950000달성</t>
+  </si>
+  <si>
+    <t>레벨 9960000달성</t>
+  </si>
+  <si>
+    <t>레벨 9970000달성</t>
+  </si>
+  <si>
+    <t>레벨 9980000달성</t>
+  </si>
+  <si>
+    <t>레벨 9990000달성</t>
+  </si>
+  <si>
+    <t>레벨 10000000달성</t>
+  </si>
+  <si>
+    <t>레벨 10100000달성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 10200000달성</t>
+  </si>
+  <si>
+    <t>레벨 10300000달성</t>
+  </si>
+  <si>
+    <t>레벨 10400000달성</t>
+  </si>
+  <si>
+    <t>레벨 10500000달성</t>
+  </si>
+  <si>
+    <t>레벨 10600000달성</t>
+  </si>
+  <si>
+    <t>레벨 10700000달성</t>
+  </si>
+  <si>
+    <t>레벨 10800000달성</t>
+  </si>
+  <si>
+    <t>레벨 10900000달성</t>
+  </si>
+  <si>
+    <t>레벨 11000000달성</t>
+  </si>
+  <si>
+    <t>레벨 11100000달성</t>
+  </si>
+  <si>
+    <t>레벨 11200000달성</t>
+  </si>
+  <si>
+    <t>레벨 11300000달성</t>
+  </si>
+  <si>
+    <t>레벨 11400000달성</t>
+  </si>
+  <si>
+    <t>레벨 11500000달성</t>
+  </si>
+  <si>
+    <t>레벨 11600000달성</t>
+  </si>
+  <si>
+    <t>레벨 11700000달성</t>
+  </si>
+  <si>
+    <t>레벨 11800000달성</t>
+  </si>
+  <si>
+    <t>레벨 11900000달성</t>
+  </si>
+  <si>
+    <t>레벨 12000000달성</t>
+  </si>
+  <si>
+    <t>레벨 12100000달성</t>
+  </si>
+  <si>
+    <t>레벨 12200000달성</t>
+  </si>
+  <si>
+    <t>레벨 12300000달성</t>
+  </si>
+  <si>
+    <t>레벨 12400000달성</t>
+  </si>
+  <si>
+    <t>레벨 12500000달성</t>
+  </si>
+  <si>
+    <t>레벨 12600000달성</t>
+  </si>
+  <si>
+    <t>레벨 12700000달성</t>
+  </si>
+  <si>
+    <t>레벨 12800000달성</t>
+  </si>
+  <si>
+    <t>레벨 12900000달성</t>
+  </si>
+  <si>
+    <t>레벨 13000000달성</t>
+  </si>
+  <si>
+    <t>레벨 13100000달성</t>
+  </si>
+  <si>
+    <t>레벨 13200000달성</t>
+  </si>
+  <si>
+    <t>레벨 13300000달성</t>
+  </si>
+  <si>
+    <t>레벨 13400000달성</t>
+  </si>
+  <si>
+    <t>레벨 13500000달성</t>
+  </si>
+  <si>
+    <t>레벨 13600000달성</t>
+  </si>
+  <si>
+    <t>레벨 13700000달성</t>
+  </si>
+  <si>
+    <t>레벨 13800000달성</t>
+  </si>
+  <si>
+    <t>레벨 13900000달성</t>
+  </si>
+  <si>
+    <t>레벨 14000000달성</t>
+  </si>
+  <si>
+    <t>레벨 14100000달성</t>
+  </si>
+  <si>
+    <t>레벨 14200000달성</t>
+  </si>
+  <si>
+    <t>레벨 14300000달성</t>
+  </si>
+  <si>
+    <t>레벨 14400000달성</t>
+  </si>
+  <si>
+    <t>레벨 14500000달성</t>
+  </si>
+  <si>
+    <t>레벨 14600000달성</t>
+  </si>
+  <si>
+    <t>레벨 14700000달성</t>
+  </si>
+  <si>
+    <t>레벨 14800000달성</t>
+  </si>
+  <si>
+    <t>레벨 14900000달성</t>
+  </si>
+  <si>
+    <t>레벨 15000000달성</t>
   </si>
 </sst>
 </file>
@@ -3808,10 +4109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794A58EA-1598-432A-B5E7-01EB261779BA}">
-  <dimension ref="A1:M1069"/>
+  <dimension ref="A1:M1169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1048" workbookViewId="0">
-      <selection activeCell="E1063" sqref="E1063"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -49788,6 +50089,4306 @@
         <v>11</v>
       </c>
     </row>
+    <row r="1070" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1070" s="1">
+        <v>1068</v>
+      </c>
+      <c r="B1070" s="1" t="str">
+        <f t="shared" ref="B1070:B1126" si="43">"level"&amp;A1070</f>
+        <v>level1068</v>
+      </c>
+      <c r="C1070" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1070" s="1" t="str">
+        <f t="shared" ref="D1070:D1118" si="44">MID(C1070,4,7)</f>
+        <v>9510000</v>
+      </c>
+      <c r="E1070" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1070" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1070" s="1">
+        <v>18535000000</v>
+      </c>
+      <c r="H1070" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1070" s="1">
+        <v>186200000</v>
+      </c>
+      <c r="J1070" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1070" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1070" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1070" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1071" s="1">
+        <v>1069</v>
+      </c>
+      <c r="B1071" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1069</v>
+      </c>
+      <c r="C1071" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D1071" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9520000</v>
+      </c>
+      <c r="E1071" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1071" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1071" s="1">
+        <v>18555000000</v>
+      </c>
+      <c r="H1071" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1071" s="1">
+        <v>186400000</v>
+      </c>
+      <c r="J1071" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1071" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1071" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1071" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1072" s="1">
+        <v>1070</v>
+      </c>
+      <c r="B1072" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1070</v>
+      </c>
+      <c r="C1072" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D1072" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9530000</v>
+      </c>
+      <c r="E1072" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1072" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1072" s="1">
+        <v>18575000000</v>
+      </c>
+      <c r="H1072" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1072" s="1">
+        <v>186600000</v>
+      </c>
+      <c r="J1072" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1072" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1072" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1072" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1073" s="1">
+        <v>1071</v>
+      </c>
+      <c r="B1073" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1071</v>
+      </c>
+      <c r="C1073" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D1073" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9540000</v>
+      </c>
+      <c r="E1073" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1073" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1073" s="1">
+        <v>18595000000</v>
+      </c>
+      <c r="H1073" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1073" s="1">
+        <v>186800000</v>
+      </c>
+      <c r="J1073" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1073" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1073" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1073" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1074" s="1">
+        <v>1072</v>
+      </c>
+      <c r="B1074" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1072</v>
+      </c>
+      <c r="C1074" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D1074" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9550000</v>
+      </c>
+      <c r="E1074" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1074" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1074" s="1">
+        <v>18615000000</v>
+      </c>
+      <c r="H1074" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1074" s="1">
+        <v>187000000</v>
+      </c>
+      <c r="J1074" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1074" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1074" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1074" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1075" s="1">
+        <v>1073</v>
+      </c>
+      <c r="B1075" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1073</v>
+      </c>
+      <c r="C1075" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D1075" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9560000</v>
+      </c>
+      <c r="E1075" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1075" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1075" s="1">
+        <v>18635000000</v>
+      </c>
+      <c r="H1075" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1075" s="1">
+        <v>187200000</v>
+      </c>
+      <c r="J1075" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1075" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1075" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1075" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1076" s="1">
+        <v>1074</v>
+      </c>
+      <c r="B1076" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1074</v>
+      </c>
+      <c r="C1076" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D1076" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9570000</v>
+      </c>
+      <c r="E1076" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1076" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1076" s="1">
+        <v>18655000000</v>
+      </c>
+      <c r="H1076" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1076" s="1">
+        <v>187400000</v>
+      </c>
+      <c r="J1076" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1076" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1076" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1076" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1077" s="1">
+        <v>1075</v>
+      </c>
+      <c r="B1077" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1075</v>
+      </c>
+      <c r="C1077" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1077" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9580000</v>
+      </c>
+      <c r="E1077" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1077" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1077" s="1">
+        <v>18675000000</v>
+      </c>
+      <c r="H1077" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1077" s="1">
+        <v>187600000</v>
+      </c>
+      <c r="J1077" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1077" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1077" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1077" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1078" s="1">
+        <v>1076</v>
+      </c>
+      <c r="B1078" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1076</v>
+      </c>
+      <c r="C1078" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D1078" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9590000</v>
+      </c>
+      <c r="E1078" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1078" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1078" s="1">
+        <v>18695000000</v>
+      </c>
+      <c r="H1078" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1078" s="1">
+        <v>187800000</v>
+      </c>
+      <c r="J1078" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1078" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1078" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1078" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1079" s="1">
+        <v>1077</v>
+      </c>
+      <c r="B1079" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1077</v>
+      </c>
+      <c r="C1079" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D1079" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9600000</v>
+      </c>
+      <c r="E1079" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1079" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1079" s="1">
+        <v>18715000000</v>
+      </c>
+      <c r="H1079" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1079" s="1">
+        <v>188000000</v>
+      </c>
+      <c r="J1079" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1079" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1079" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1079" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1080" s="1">
+        <v>1078</v>
+      </c>
+      <c r="B1080" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1078</v>
+      </c>
+      <c r="C1080" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D1080" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9610000</v>
+      </c>
+      <c r="E1080" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1080" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1080" s="1">
+        <v>18735000000</v>
+      </c>
+      <c r="H1080" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1080" s="1">
+        <v>188200000</v>
+      </c>
+      <c r="J1080" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1080" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1080" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1080" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1081" s="1">
+        <v>1079</v>
+      </c>
+      <c r="B1081" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1079</v>
+      </c>
+      <c r="C1081" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D1081" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9620000</v>
+      </c>
+      <c r="E1081" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1081" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1081" s="1">
+        <v>18755000000</v>
+      </c>
+      <c r="H1081" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1081" s="1">
+        <v>188400000</v>
+      </c>
+      <c r="J1081" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1081" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1081" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1081" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1082" s="1">
+        <v>1080</v>
+      </c>
+      <c r="B1082" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1080</v>
+      </c>
+      <c r="C1082" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D1082" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9630000</v>
+      </c>
+      <c r="E1082" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1082" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1082" s="1">
+        <v>18775000000</v>
+      </c>
+      <c r="H1082" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1082" s="1">
+        <v>188600000</v>
+      </c>
+      <c r="J1082" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1082" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1082" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1082" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1083" s="1">
+        <v>1081</v>
+      </c>
+      <c r="B1083" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1081</v>
+      </c>
+      <c r="C1083" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D1083" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9640000</v>
+      </c>
+      <c r="E1083" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1083" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1083" s="1">
+        <v>18795000000</v>
+      </c>
+      <c r="H1083" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1083" s="1">
+        <v>188800000</v>
+      </c>
+      <c r="J1083" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1083" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1083" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1083" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1084" s="1">
+        <v>1082</v>
+      </c>
+      <c r="B1084" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1082</v>
+      </c>
+      <c r="C1084" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D1084" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9650000</v>
+      </c>
+      <c r="E1084" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1084" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1084" s="1">
+        <v>18815000000</v>
+      </c>
+      <c r="H1084" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1084" s="1">
+        <v>189000000</v>
+      </c>
+      <c r="J1084" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1084" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1084" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1084" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1085" s="1">
+        <v>1083</v>
+      </c>
+      <c r="B1085" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1083</v>
+      </c>
+      <c r="C1085" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D1085" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9660000</v>
+      </c>
+      <c r="E1085" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1085" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1085" s="1">
+        <v>18835000000</v>
+      </c>
+      <c r="H1085" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1085" s="1">
+        <v>189200000</v>
+      </c>
+      <c r="J1085" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1085" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1085" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1085" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1086" s="1">
+        <v>1084</v>
+      </c>
+      <c r="B1086" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1084</v>
+      </c>
+      <c r="C1086" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D1086" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9670000</v>
+      </c>
+      <c r="E1086" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1086" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1086" s="1">
+        <v>18855000000</v>
+      </c>
+      <c r="H1086" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1086" s="1">
+        <v>189400000</v>
+      </c>
+      <c r="J1086" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1086" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1086" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1086" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1087" s="1">
+        <v>1085</v>
+      </c>
+      <c r="B1087" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1085</v>
+      </c>
+      <c r="C1087" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1087" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9680000</v>
+      </c>
+      <c r="E1087" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1087" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1087" s="1">
+        <v>18875000000</v>
+      </c>
+      <c r="H1087" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1087" s="1">
+        <v>189600000</v>
+      </c>
+      <c r="J1087" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1087" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1087" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1087" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1088" s="1">
+        <v>1086</v>
+      </c>
+      <c r="B1088" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1086</v>
+      </c>
+      <c r="C1088" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D1088" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9690000</v>
+      </c>
+      <c r="E1088" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1088" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1088" s="1">
+        <v>18895000000</v>
+      </c>
+      <c r="H1088" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1088" s="1">
+        <v>189800000</v>
+      </c>
+      <c r="J1088" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1088" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1088" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1088" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1089" s="1">
+        <v>1087</v>
+      </c>
+      <c r="B1089" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1087</v>
+      </c>
+      <c r="C1089" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D1089" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9700000</v>
+      </c>
+      <c r="E1089" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1089" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1089" s="1">
+        <v>18915000000</v>
+      </c>
+      <c r="H1089" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1089" s="1">
+        <v>190000000</v>
+      </c>
+      <c r="J1089" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1089" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1089" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1089" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1090" s="1">
+        <v>1088</v>
+      </c>
+      <c r="B1090" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1088</v>
+      </c>
+      <c r="C1090" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1090" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9710000</v>
+      </c>
+      <c r="E1090" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1090" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1090" s="1">
+        <v>18935000000</v>
+      </c>
+      <c r="H1090" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1090" s="1">
+        <v>190200000</v>
+      </c>
+      <c r="J1090" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1090" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1090" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1090" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1091" s="1">
+        <v>1089</v>
+      </c>
+      <c r="B1091" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1089</v>
+      </c>
+      <c r="C1091" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D1091" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9720000</v>
+      </c>
+      <c r="E1091" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1091" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1091" s="1">
+        <v>18955000000</v>
+      </c>
+      <c r="H1091" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1091" s="1">
+        <v>190400000</v>
+      </c>
+      <c r="J1091" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1091" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1091" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1091" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1092" s="1">
+        <v>1090</v>
+      </c>
+      <c r="B1092" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1090</v>
+      </c>
+      <c r="C1092" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D1092" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9730000</v>
+      </c>
+      <c r="E1092" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1092" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1092" s="1">
+        <v>18975000000</v>
+      </c>
+      <c r="H1092" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1092" s="1">
+        <v>190600000</v>
+      </c>
+      <c r="J1092" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1092" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1092" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1092" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1093" s="1">
+        <v>1091</v>
+      </c>
+      <c r="B1093" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1091</v>
+      </c>
+      <c r="C1093" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D1093" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9740000</v>
+      </c>
+      <c r="E1093" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1093" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1093" s="1">
+        <v>18995000000</v>
+      </c>
+      <c r="H1093" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1093" s="1">
+        <v>190800000</v>
+      </c>
+      <c r="J1093" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1093" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1093" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1093" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1094" s="1">
+        <v>1092</v>
+      </c>
+      <c r="B1094" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1092</v>
+      </c>
+      <c r="C1094" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D1094" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9750000</v>
+      </c>
+      <c r="E1094" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1094" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1094" s="1">
+        <v>19015000000</v>
+      </c>
+      <c r="H1094" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1094" s="1">
+        <v>191000000</v>
+      </c>
+      <c r="J1094" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1094" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1094" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1094" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1095" s="1">
+        <v>1093</v>
+      </c>
+      <c r="B1095" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1093</v>
+      </c>
+      <c r="C1095" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D1095" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9760000</v>
+      </c>
+      <c r="E1095" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1095" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1095" s="1">
+        <v>19035000000</v>
+      </c>
+      <c r="H1095" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1095" s="1">
+        <v>191200000</v>
+      </c>
+      <c r="J1095" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1095" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1095" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1095" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1096" s="1">
+        <v>1094</v>
+      </c>
+      <c r="B1096" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1094</v>
+      </c>
+      <c r="C1096" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D1096" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9770000</v>
+      </c>
+      <c r="E1096" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1096" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1096" s="1">
+        <v>19055000000</v>
+      </c>
+      <c r="H1096" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1096" s="1">
+        <v>191400000</v>
+      </c>
+      <c r="J1096" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1096" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1096" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1096" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1097" s="1">
+        <v>1095</v>
+      </c>
+      <c r="B1097" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1095</v>
+      </c>
+      <c r="C1097" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D1097" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9780000</v>
+      </c>
+      <c r="E1097" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1097" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1097" s="1">
+        <v>19075000000</v>
+      </c>
+      <c r="H1097" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1097" s="1">
+        <v>191600000</v>
+      </c>
+      <c r="J1097" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1097" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1097" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1097" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1098" s="1">
+        <v>1096</v>
+      </c>
+      <c r="B1098" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1096</v>
+      </c>
+      <c r="C1098" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D1098" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9790000</v>
+      </c>
+      <c r="E1098" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1098" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1098" s="1">
+        <v>19095000000</v>
+      </c>
+      <c r="H1098" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1098" s="1">
+        <v>191800000</v>
+      </c>
+      <c r="J1098" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1098" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1098" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1098" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1099" s="1">
+        <v>1097</v>
+      </c>
+      <c r="B1099" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1097</v>
+      </c>
+      <c r="C1099" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1099" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9800000</v>
+      </c>
+      <c r="E1099" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1099" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1099" s="1">
+        <v>19115000000</v>
+      </c>
+      <c r="H1099" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1099" s="1">
+        <v>192000000</v>
+      </c>
+      <c r="J1099" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1099" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1099" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1099" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1100" s="1">
+        <v>1098</v>
+      </c>
+      <c r="B1100" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1098</v>
+      </c>
+      <c r="C1100" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D1100" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9810000</v>
+      </c>
+      <c r="E1100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1100" s="1">
+        <v>19135000000</v>
+      </c>
+      <c r="H1100" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1100" s="1">
+        <v>192200000</v>
+      </c>
+      <c r="J1100" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1100" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1100" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1101" s="1">
+        <v>1099</v>
+      </c>
+      <c r="B1101" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1099</v>
+      </c>
+      <c r="C1101" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D1101" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9820000</v>
+      </c>
+      <c r="E1101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1101" s="1">
+        <v>19155000000</v>
+      </c>
+      <c r="H1101" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1101" s="1">
+        <v>192400000</v>
+      </c>
+      <c r="J1101" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1101" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1101" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1101" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1102" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B1102" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1100</v>
+      </c>
+      <c r="C1102" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D1102" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9830000</v>
+      </c>
+      <c r="E1102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1102" s="1">
+        <v>19175000000</v>
+      </c>
+      <c r="H1102" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1102" s="1">
+        <v>192600000</v>
+      </c>
+      <c r="J1102" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1102" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1102" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1102" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1103" s="1">
+        <v>1101</v>
+      </c>
+      <c r="B1103" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1101</v>
+      </c>
+      <c r="C1103" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D1103" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9840000</v>
+      </c>
+      <c r="E1103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1103" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1103" s="1">
+        <v>19195000000</v>
+      </c>
+      <c r="H1103" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1103" s="1">
+        <v>192800000</v>
+      </c>
+      <c r="J1103" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1103" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1103" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1103" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1104" s="1">
+        <v>1102</v>
+      </c>
+      <c r="B1104" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1102</v>
+      </c>
+      <c r="C1104" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1104" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9850000</v>
+      </c>
+      <c r="E1104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1104" s="1">
+        <v>19215000000</v>
+      </c>
+      <c r="H1104" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1104" s="1">
+        <v>193000000</v>
+      </c>
+      <c r="J1104" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1104" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1104" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1105" s="1">
+        <v>1103</v>
+      </c>
+      <c r="B1105" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1103</v>
+      </c>
+      <c r="C1105" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D1105" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9860000</v>
+      </c>
+      <c r="E1105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1105" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1105" s="1">
+        <v>19235000000</v>
+      </c>
+      <c r="H1105" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1105" s="1">
+        <v>193200000</v>
+      </c>
+      <c r="J1105" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1105" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1105" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1105" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1106" s="1">
+        <v>1104</v>
+      </c>
+      <c r="B1106" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1104</v>
+      </c>
+      <c r="C1106" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1106" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9870000</v>
+      </c>
+      <c r="E1106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1106" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1106" s="1">
+        <v>19255000000</v>
+      </c>
+      <c r="H1106" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1106" s="1">
+        <v>193400000</v>
+      </c>
+      <c r="J1106" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1106" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1106" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1106" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1107" s="1">
+        <v>1105</v>
+      </c>
+      <c r="B1107" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1105</v>
+      </c>
+      <c r="C1107" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D1107" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9880000</v>
+      </c>
+      <c r="E1107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1107" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1107" s="1">
+        <v>19275000000</v>
+      </c>
+      <c r="H1107" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1107" s="1">
+        <v>193600000</v>
+      </c>
+      <c r="J1107" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1107" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1108" s="1">
+        <v>1106</v>
+      </c>
+      <c r="B1108" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1106</v>
+      </c>
+      <c r="C1108" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D1108" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9890000</v>
+      </c>
+      <c r="E1108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1108" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1108" s="1">
+        <v>19295000000</v>
+      </c>
+      <c r="H1108" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1108" s="1">
+        <v>193800000</v>
+      </c>
+      <c r="J1108" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1108" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1108" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1109" s="1">
+        <v>1107</v>
+      </c>
+      <c r="B1109" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1107</v>
+      </c>
+      <c r="C1109" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1109" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9900000</v>
+      </c>
+      <c r="E1109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1109" s="1">
+        <v>19315000000</v>
+      </c>
+      <c r="H1109" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1109" s="1">
+        <v>194000000</v>
+      </c>
+      <c r="J1109" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1109" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1109" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1110" s="1">
+        <v>1108</v>
+      </c>
+      <c r="B1110" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1108</v>
+      </c>
+      <c r="C1110" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D1110" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9910000</v>
+      </c>
+      <c r="E1110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1110" s="1">
+        <v>19335000000</v>
+      </c>
+      <c r="H1110" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1110" s="1">
+        <v>194200000</v>
+      </c>
+      <c r="J1110" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1110" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1110" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1110" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1111" s="1">
+        <v>1109</v>
+      </c>
+      <c r="B1111" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1109</v>
+      </c>
+      <c r="C1111" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1111" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9920000</v>
+      </c>
+      <c r="E1111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1111" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1111" s="1">
+        <v>19355000000</v>
+      </c>
+      <c r="H1111" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1111" s="1">
+        <v>194400000</v>
+      </c>
+      <c r="J1111" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1111" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1111" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1112" s="1">
+        <v>1110</v>
+      </c>
+      <c r="B1112" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1110</v>
+      </c>
+      <c r="C1112" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D1112" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9930000</v>
+      </c>
+      <c r="E1112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1112" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1112" s="1">
+        <v>19375000000</v>
+      </c>
+      <c r="H1112" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1112" s="1">
+        <v>194600000</v>
+      </c>
+      <c r="J1112" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1112" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1112" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1112" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1113" s="1">
+        <v>1111</v>
+      </c>
+      <c r="B1113" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1111</v>
+      </c>
+      <c r="C1113" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D1113" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9940000</v>
+      </c>
+      <c r="E1113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1113" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1113" s="1">
+        <v>19395000000</v>
+      </c>
+      <c r="H1113" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1113" s="1">
+        <v>194800000</v>
+      </c>
+      <c r="J1113" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1113" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1113" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1113" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1114" s="1">
+        <v>1112</v>
+      </c>
+      <c r="B1114" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1112</v>
+      </c>
+      <c r="C1114" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D1114" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9950000</v>
+      </c>
+      <c r="E1114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1114" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1114" s="1">
+        <v>19415000000</v>
+      </c>
+      <c r="H1114" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1114" s="1">
+        <v>195000000</v>
+      </c>
+      <c r="J1114" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1114" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1114" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1114" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1115" s="1">
+        <v>1113</v>
+      </c>
+      <c r="B1115" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1113</v>
+      </c>
+      <c r="C1115" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D1115" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9960000</v>
+      </c>
+      <c r="E1115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1115" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1115" s="1">
+        <v>19435000000</v>
+      </c>
+      <c r="H1115" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1115" s="1">
+        <v>195200000</v>
+      </c>
+      <c r="J1115" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1115" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1115" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1115" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1116" s="1">
+        <v>1114</v>
+      </c>
+      <c r="B1116" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1114</v>
+      </c>
+      <c r="C1116" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D1116" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9970000</v>
+      </c>
+      <c r="E1116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1116" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1116" s="1">
+        <v>19455000000</v>
+      </c>
+      <c r="H1116" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1116" s="1">
+        <v>195400000</v>
+      </c>
+      <c r="J1116" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1116" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1116" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1116" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1117" s="1">
+        <v>1115</v>
+      </c>
+      <c r="B1117" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1115</v>
+      </c>
+      <c r="C1117" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D1117" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9980000</v>
+      </c>
+      <c r="E1117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1117" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1117" s="1">
+        <v>19475000000</v>
+      </c>
+      <c r="H1117" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1117" s="1">
+        <v>195600000</v>
+      </c>
+      <c r="J1117" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1117" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1117" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1117" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1118" s="1">
+        <v>1116</v>
+      </c>
+      <c r="B1118" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1116</v>
+      </c>
+      <c r="C1118" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D1118" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9990000</v>
+      </c>
+      <c r="E1118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1118" s="1">
+        <v>19495000000</v>
+      </c>
+      <c r="H1118" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1118" s="1">
+        <v>195800000</v>
+      </c>
+      <c r="J1118" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1118" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1118" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1118" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1119" s="1">
+        <v>1117</v>
+      </c>
+      <c r="B1119" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1117</v>
+      </c>
+      <c r="C1119" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D1119" s="1" t="str">
+        <f>MID(C1119,4,8)</f>
+        <v>10000000</v>
+      </c>
+      <c r="E1119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1119" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1119" s="1">
+        <v>19515000000</v>
+      </c>
+      <c r="H1119" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1119" s="1">
+        <v>196000000</v>
+      </c>
+      <c r="J1119" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1119" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1119" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1119" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1120" s="1">
+        <v>1118</v>
+      </c>
+      <c r="B1120" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1118</v>
+      </c>
+      <c r="C1120" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D1120" s="1" t="str">
+        <f t="shared" ref="D1120:D1169" si="45">MID(C1120,4,8)</f>
+        <v>10100000</v>
+      </c>
+      <c r="E1120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1120" s="1">
+        <v>19535000000</v>
+      </c>
+      <c r="H1120" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1120" s="1">
+        <v>196200000</v>
+      </c>
+      <c r="J1120" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1120" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1120" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1120" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1121" s="1">
+        <v>1119</v>
+      </c>
+      <c r="B1121" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1119</v>
+      </c>
+      <c r="C1121" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D1121" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>10200000</v>
+      </c>
+      <c r="E1121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1121" s="1">
+        <v>19555000000</v>
+      </c>
+      <c r="H1121" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1121" s="1">
+        <v>196400000</v>
+      </c>
+      <c r="J1121" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1121" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1121" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1121" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1122" s="1">
+        <v>1120</v>
+      </c>
+      <c r="B1122" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1120</v>
+      </c>
+      <c r="C1122" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1122" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>10300000</v>
+      </c>
+      <c r="E1122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1122" s="1">
+        <v>19575000000</v>
+      </c>
+      <c r="H1122" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1122" s="1">
+        <v>196600000</v>
+      </c>
+      <c r="J1122" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1122" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1122" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1122" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1123" s="1">
+        <v>1121</v>
+      </c>
+      <c r="B1123" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1121</v>
+      </c>
+      <c r="C1123" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D1123" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>10400000</v>
+      </c>
+      <c r="E1123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1123" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1123" s="1">
+        <v>19595000000</v>
+      </c>
+      <c r="H1123" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1123" s="1">
+        <v>196800000</v>
+      </c>
+      <c r="J1123" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1123" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1123" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1123" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1124" s="1">
+        <v>1122</v>
+      </c>
+      <c r="B1124" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1122</v>
+      </c>
+      <c r="C1124" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D1124" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>10500000</v>
+      </c>
+      <c r="E1124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1124" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1124" s="1">
+        <v>19615000000</v>
+      </c>
+      <c r="H1124" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1124" s="1">
+        <v>197000000</v>
+      </c>
+      <c r="J1124" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1124" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1124" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1124" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1125" s="1">
+        <v>1123</v>
+      </c>
+      <c r="B1125" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1123</v>
+      </c>
+      <c r="C1125" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1125" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>10600000</v>
+      </c>
+      <c r="E1125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1125" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1125" s="1">
+        <v>19635000000</v>
+      </c>
+      <c r="H1125" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1125" s="1">
+        <v>197200000</v>
+      </c>
+      <c r="J1125" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1125" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1125" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1126" s="1">
+        <v>1124</v>
+      </c>
+      <c r="B1126" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>level1124</v>
+      </c>
+      <c r="C1126" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D1126" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>10700000</v>
+      </c>
+      <c r="E1126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1126" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1126" s="1">
+        <v>19655000000</v>
+      </c>
+      <c r="H1126" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1126" s="1">
+        <v>197400000</v>
+      </c>
+      <c r="J1126" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1126" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1126" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1127" s="1">
+        <v>1125</v>
+      </c>
+      <c r="B1127" s="1" t="str">
+        <f t="shared" ref="B1127:B1169" si="46">"level"&amp;A1127</f>
+        <v>level1125</v>
+      </c>
+      <c r="C1127" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D1127" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>10800000</v>
+      </c>
+      <c r="E1127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1127" s="1">
+        <v>19675000000</v>
+      </c>
+      <c r="H1127" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1127" s="1">
+        <v>197600000</v>
+      </c>
+      <c r="J1127" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1127" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1127" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1127" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1128" s="1">
+        <v>1126</v>
+      </c>
+      <c r="B1128" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1126</v>
+      </c>
+      <c r="C1128" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D1128" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>10900000</v>
+      </c>
+      <c r="E1128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1128" s="1">
+        <v>19695000000</v>
+      </c>
+      <c r="H1128" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1128" s="1">
+        <v>197800000</v>
+      </c>
+      <c r="J1128" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1128" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1128" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1128" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1129" s="1">
+        <v>1127</v>
+      </c>
+      <c r="B1129" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1127</v>
+      </c>
+      <c r="C1129" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1129" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>11000000</v>
+      </c>
+      <c r="E1129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1129" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1129" s="1">
+        <v>19715000000</v>
+      </c>
+      <c r="H1129" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1129" s="1">
+        <v>198000000</v>
+      </c>
+      <c r="J1129" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1129" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1129" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1129" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1130" s="1">
+        <v>1128</v>
+      </c>
+      <c r="B1130" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1128</v>
+      </c>
+      <c r="C1130" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1130" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>11100000</v>
+      </c>
+      <c r="E1130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1130" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1130" s="1">
+        <v>19735000000</v>
+      </c>
+      <c r="H1130" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1130" s="1">
+        <v>198200000</v>
+      </c>
+      <c r="J1130" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1130" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1130" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1130" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1131" s="1">
+        <v>1129</v>
+      </c>
+      <c r="B1131" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1129</v>
+      </c>
+      <c r="C1131" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D1131" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>11200000</v>
+      </c>
+      <c r="E1131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1131" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1131" s="1">
+        <v>19755000000</v>
+      </c>
+      <c r="H1131" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1131" s="1">
+        <v>198400000</v>
+      </c>
+      <c r="J1131" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1131" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1131" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1131" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1132" s="1">
+        <v>1130</v>
+      </c>
+      <c r="B1132" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1130</v>
+      </c>
+      <c r="C1132" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D1132" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>11300000</v>
+      </c>
+      <c r="E1132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1132" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1132" s="1">
+        <v>19775000000</v>
+      </c>
+      <c r="H1132" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1132" s="1">
+        <v>198600000</v>
+      </c>
+      <c r="J1132" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1132" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1132" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1132" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1133" s="1">
+        <v>1131</v>
+      </c>
+      <c r="B1133" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1131</v>
+      </c>
+      <c r="C1133" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D1133" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>11400000</v>
+      </c>
+      <c r="E1133" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1133" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1133" s="1">
+        <v>19795000000</v>
+      </c>
+      <c r="H1133" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1133" s="1">
+        <v>198800000</v>
+      </c>
+      <c r="J1133" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1133" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1133" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1133" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1134" s="1">
+        <v>1132</v>
+      </c>
+      <c r="B1134" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1132</v>
+      </c>
+      <c r="C1134" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D1134" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>11500000</v>
+      </c>
+      <c r="E1134" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1134" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1134" s="1">
+        <v>19815000000</v>
+      </c>
+      <c r="H1134" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1134" s="1">
+        <v>199000000</v>
+      </c>
+      <c r="J1134" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1134" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1134" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1134" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1135" s="1">
+        <v>1133</v>
+      </c>
+      <c r="B1135" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1133</v>
+      </c>
+      <c r="C1135" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D1135" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>11600000</v>
+      </c>
+      <c r="E1135" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1135" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1135" s="1">
+        <v>19835000000</v>
+      </c>
+      <c r="H1135" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1135" s="1">
+        <v>199200000</v>
+      </c>
+      <c r="J1135" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1135" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1135" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1135" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1136" s="1">
+        <v>1134</v>
+      </c>
+      <c r="B1136" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1134</v>
+      </c>
+      <c r="C1136" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D1136" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>11700000</v>
+      </c>
+      <c r="E1136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1136" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1136" s="1">
+        <v>19855000000</v>
+      </c>
+      <c r="H1136" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1136" s="1">
+        <v>199400000</v>
+      </c>
+      <c r="J1136" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1136" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1136" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1136" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1137" s="1">
+        <v>1135</v>
+      </c>
+      <c r="B1137" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1135</v>
+      </c>
+      <c r="C1137" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D1137" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>11800000</v>
+      </c>
+      <c r="E1137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1137" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1137" s="1">
+        <v>19875000000</v>
+      </c>
+      <c r="H1137" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1137" s="1">
+        <v>199600000</v>
+      </c>
+      <c r="J1137" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1137" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1137" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1137" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1138" s="1">
+        <v>1136</v>
+      </c>
+      <c r="B1138" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1136</v>
+      </c>
+      <c r="C1138" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D1138" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>11900000</v>
+      </c>
+      <c r="E1138" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1138" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1138" s="1">
+        <v>19895000000</v>
+      </c>
+      <c r="H1138" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1138" s="1">
+        <v>199800000</v>
+      </c>
+      <c r="J1138" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1138" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1138" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1138" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1139" s="1">
+        <v>1137</v>
+      </c>
+      <c r="B1139" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1137</v>
+      </c>
+      <c r="C1139" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D1139" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>12000000</v>
+      </c>
+      <c r="E1139" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1139" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1139" s="1">
+        <v>19915000000</v>
+      </c>
+      <c r="H1139" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1139" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="J1139" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1139" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1139" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1139" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1140" s="1">
+        <v>1138</v>
+      </c>
+      <c r="B1140" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1138</v>
+      </c>
+      <c r="C1140" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D1140" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>12100000</v>
+      </c>
+      <c r="E1140" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1140" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1140" s="1">
+        <v>19935000000</v>
+      </c>
+      <c r="H1140" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1140" s="1">
+        <v>200200000</v>
+      </c>
+      <c r="J1140" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1140" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1140" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1140" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1141" s="1">
+        <v>1139</v>
+      </c>
+      <c r="B1141" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1139</v>
+      </c>
+      <c r="C1141" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D1141" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>12200000</v>
+      </c>
+      <c r="E1141" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1141" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1141" s="1">
+        <v>19955000000</v>
+      </c>
+      <c r="H1141" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1141" s="1">
+        <v>200400000</v>
+      </c>
+      <c r="J1141" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1141" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1141" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1141" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1142" s="1">
+        <v>1140</v>
+      </c>
+      <c r="B1142" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1140</v>
+      </c>
+      <c r="C1142" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D1142" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>12300000</v>
+      </c>
+      <c r="E1142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1142" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1142" s="1">
+        <v>19975000000</v>
+      </c>
+      <c r="H1142" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1142" s="1">
+        <v>200600000</v>
+      </c>
+      <c r="J1142" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1142" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1142" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1142" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1143" s="1">
+        <v>1141</v>
+      </c>
+      <c r="B1143" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1141</v>
+      </c>
+      <c r="C1143" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D1143" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>12400000</v>
+      </c>
+      <c r="E1143" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1143" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1143" s="1">
+        <v>19995000000</v>
+      </c>
+      <c r="H1143" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1143" s="1">
+        <v>200800000</v>
+      </c>
+      <c r="J1143" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1143" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1143" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1143" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1144" s="1">
+        <v>1142</v>
+      </c>
+      <c r="B1144" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1142</v>
+      </c>
+      <c r="C1144" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D1144" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>12500000</v>
+      </c>
+      <c r="E1144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1144" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1144" s="1">
+        <v>20015000000</v>
+      </c>
+      <c r="H1144" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1144" s="1">
+        <v>201000000</v>
+      </c>
+      <c r="J1144" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1144" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1144" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1144" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1145" s="1">
+        <v>1143</v>
+      </c>
+      <c r="B1145" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1143</v>
+      </c>
+      <c r="C1145" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D1145" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>12600000</v>
+      </c>
+      <c r="E1145" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1145" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1145" s="1">
+        <v>20035000000</v>
+      </c>
+      <c r="H1145" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1145" s="1">
+        <v>201200000</v>
+      </c>
+      <c r="J1145" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1145" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1145" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1145" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1146" s="1">
+        <v>1144</v>
+      </c>
+      <c r="B1146" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1144</v>
+      </c>
+      <c r="C1146" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D1146" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>12700000</v>
+      </c>
+      <c r="E1146" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1146" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1146" s="1">
+        <v>20055000000</v>
+      </c>
+      <c r="H1146" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1146" s="1">
+        <v>201400000</v>
+      </c>
+      <c r="J1146" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1146" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1146" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1146" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1147" s="1">
+        <v>1145</v>
+      </c>
+      <c r="B1147" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1145</v>
+      </c>
+      <c r="C1147" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D1147" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>12800000</v>
+      </c>
+      <c r="E1147" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1147" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1147" s="1">
+        <v>20075000000</v>
+      </c>
+      <c r="H1147" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1147" s="1">
+        <v>201600000</v>
+      </c>
+      <c r="J1147" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1147" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1147" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1147" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1148" s="1">
+        <v>1146</v>
+      </c>
+      <c r="B1148" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1146</v>
+      </c>
+      <c r="C1148" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D1148" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>12900000</v>
+      </c>
+      <c r="E1148" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1148" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1148" s="1">
+        <v>20095000000</v>
+      </c>
+      <c r="H1148" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1148" s="1">
+        <v>201800000</v>
+      </c>
+      <c r="J1148" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1148" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1148" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1148" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1149" s="1">
+        <v>1147</v>
+      </c>
+      <c r="B1149" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1147</v>
+      </c>
+      <c r="C1149" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D1149" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>13000000</v>
+      </c>
+      <c r="E1149" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1149" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1149" s="1">
+        <v>20115000000</v>
+      </c>
+      <c r="H1149" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1149" s="1">
+        <v>202000000</v>
+      </c>
+      <c r="J1149" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1149" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1149" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1149" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1150" s="1">
+        <v>1148</v>
+      </c>
+      <c r="B1150" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1148</v>
+      </c>
+      <c r="C1150" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D1150" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>13100000</v>
+      </c>
+      <c r="E1150" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1150" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1150" s="1">
+        <v>20135000000</v>
+      </c>
+      <c r="H1150" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1150" s="1">
+        <v>202200000</v>
+      </c>
+      <c r="J1150" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1150" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1150" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1150" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1151" s="1">
+        <v>1149</v>
+      </c>
+      <c r="B1151" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1149</v>
+      </c>
+      <c r="C1151" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D1151" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>13200000</v>
+      </c>
+      <c r="E1151" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1151" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1151" s="1">
+        <v>20155000000</v>
+      </c>
+      <c r="H1151" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1151" s="1">
+        <v>202400000</v>
+      </c>
+      <c r="J1151" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1151" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1151" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1151" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1152" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B1152" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1150</v>
+      </c>
+      <c r="C1152" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D1152" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>13300000</v>
+      </c>
+      <c r="E1152" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1152" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1152" s="1">
+        <v>20175000000</v>
+      </c>
+      <c r="H1152" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1152" s="1">
+        <v>202600000</v>
+      </c>
+      <c r="J1152" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1152" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1152" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1152" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1153" s="1">
+        <v>1151</v>
+      </c>
+      <c r="B1153" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1151</v>
+      </c>
+      <c r="C1153" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D1153" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>13400000</v>
+      </c>
+      <c r="E1153" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1153" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1153" s="1">
+        <v>20195000000</v>
+      </c>
+      <c r="H1153" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1153" s="1">
+        <v>202800000</v>
+      </c>
+      <c r="J1153" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1153" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1153" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1153" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1154" s="1">
+        <v>1152</v>
+      </c>
+      <c r="B1154" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1152</v>
+      </c>
+      <c r="C1154" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D1154" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>13500000</v>
+      </c>
+      <c r="E1154" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1154" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1154" s="1">
+        <v>20215000000</v>
+      </c>
+      <c r="H1154" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1154" s="1">
+        <v>203000000</v>
+      </c>
+      <c r="J1154" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1154" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1154" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1154" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1155" s="1">
+        <v>1153</v>
+      </c>
+      <c r="B1155" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1153</v>
+      </c>
+      <c r="C1155" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D1155" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>13600000</v>
+      </c>
+      <c r="E1155" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1155" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1155" s="1">
+        <v>20235000000</v>
+      </c>
+      <c r="H1155" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1155" s="1">
+        <v>203200000</v>
+      </c>
+      <c r="J1155" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1155" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1155" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1155" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1156" s="1">
+        <v>1154</v>
+      </c>
+      <c r="B1156" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1154</v>
+      </c>
+      <c r="C1156" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D1156" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>13700000</v>
+      </c>
+      <c r="E1156" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1156" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1156" s="1">
+        <v>20255000000</v>
+      </c>
+      <c r="H1156" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1156" s="1">
+        <v>203400000</v>
+      </c>
+      <c r="J1156" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1156" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1156" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1156" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1157" s="1">
+        <v>1155</v>
+      </c>
+      <c r="B1157" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1155</v>
+      </c>
+      <c r="C1157" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D1157" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>13800000</v>
+      </c>
+      <c r="E1157" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1157" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1157" s="1">
+        <v>20275000000</v>
+      </c>
+      <c r="H1157" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1157" s="1">
+        <v>203600000</v>
+      </c>
+      <c r="J1157" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1157" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1157" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1157" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1158" s="1">
+        <v>1156</v>
+      </c>
+      <c r="B1158" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1156</v>
+      </c>
+      <c r="C1158" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D1158" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>13900000</v>
+      </c>
+      <c r="E1158" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1158" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1158" s="1">
+        <v>20295000000</v>
+      </c>
+      <c r="H1158" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1158" s="1">
+        <v>203800000</v>
+      </c>
+      <c r="J1158" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1158" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1158" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1158" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1159" s="1">
+        <v>1157</v>
+      </c>
+      <c r="B1159" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1157</v>
+      </c>
+      <c r="C1159" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D1159" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>14000000</v>
+      </c>
+      <c r="E1159" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1159" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1159" s="1">
+        <v>20315000000</v>
+      </c>
+      <c r="H1159" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1159" s="1">
+        <v>204000000</v>
+      </c>
+      <c r="J1159" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1159" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1159" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1159" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1160" s="1">
+        <v>1158</v>
+      </c>
+      <c r="B1160" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1158</v>
+      </c>
+      <c r="C1160" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D1160" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>14100000</v>
+      </c>
+      <c r="E1160" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1160" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1160" s="1">
+        <v>20335000000</v>
+      </c>
+      <c r="H1160" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1160" s="1">
+        <v>204200000</v>
+      </c>
+      <c r="J1160" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1160" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1160" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1160" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1161" s="1">
+        <v>1159</v>
+      </c>
+      <c r="B1161" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1159</v>
+      </c>
+      <c r="C1161" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D1161" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>14200000</v>
+      </c>
+      <c r="E1161" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1161" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1161" s="1">
+        <v>20355000000</v>
+      </c>
+      <c r="H1161" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1161" s="1">
+        <v>204400000</v>
+      </c>
+      <c r="J1161" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1161" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1161" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1161" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1162" s="1">
+        <v>1160</v>
+      </c>
+      <c r="B1162" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1160</v>
+      </c>
+      <c r="C1162" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D1162" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>14300000</v>
+      </c>
+      <c r="E1162" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1162" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1162" s="1">
+        <v>20375000000</v>
+      </c>
+      <c r="H1162" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1162" s="1">
+        <v>204600000</v>
+      </c>
+      <c r="J1162" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1162" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1162" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1162" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1163" s="1">
+        <v>1161</v>
+      </c>
+      <c r="B1163" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1161</v>
+      </c>
+      <c r="C1163" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1163" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>14400000</v>
+      </c>
+      <c r="E1163" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1163" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1163" s="1">
+        <v>20395000000</v>
+      </c>
+      <c r="H1163" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1163" s="1">
+        <v>204800000</v>
+      </c>
+      <c r="J1163" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1163" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1163" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1163" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1164" s="1">
+        <v>1162</v>
+      </c>
+      <c r="B1164" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1162</v>
+      </c>
+      <c r="C1164" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D1164" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>14500000</v>
+      </c>
+      <c r="E1164" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1164" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1164" s="1">
+        <v>20415000000</v>
+      </c>
+      <c r="H1164" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1164" s="1">
+        <v>205000000</v>
+      </c>
+      <c r="J1164" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1164" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1164" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1164" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1165" s="1">
+        <v>1163</v>
+      </c>
+      <c r="B1165" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1163</v>
+      </c>
+      <c r="C1165" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D1165" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>14600000</v>
+      </c>
+      <c r="E1165" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1165" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1165" s="1">
+        <v>20435000000</v>
+      </c>
+      <c r="H1165" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1165" s="1">
+        <v>205200000</v>
+      </c>
+      <c r="J1165" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1165" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1165" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1165" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1166" s="1">
+        <v>1164</v>
+      </c>
+      <c r="B1166" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1164</v>
+      </c>
+      <c r="C1166" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D1166" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>14700000</v>
+      </c>
+      <c r="E1166" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1166" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1166" s="1">
+        <v>20455000000</v>
+      </c>
+      <c r="H1166" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1166" s="1">
+        <v>205400000</v>
+      </c>
+      <c r="J1166" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1166" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1166" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1166" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1167" s="1">
+        <v>1165</v>
+      </c>
+      <c r="B1167" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1165</v>
+      </c>
+      <c r="C1167" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D1167" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>14800000</v>
+      </c>
+      <c r="E1167" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1167" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1167" s="1">
+        <v>20475000000</v>
+      </c>
+      <c r="H1167" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1167" s="1">
+        <v>205600000</v>
+      </c>
+      <c r="J1167" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1167" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1167" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1167" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1168" s="1">
+        <v>1166</v>
+      </c>
+      <c r="B1168" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1166</v>
+      </c>
+      <c r="C1168" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D1168" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>14900000</v>
+      </c>
+      <c r="E1168" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1168" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1168" s="1">
+        <v>20495000000</v>
+      </c>
+      <c r="H1168" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1168" s="1">
+        <v>205800000</v>
+      </c>
+      <c r="J1168" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1168" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1168" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1168" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1169" s="1">
+        <v>1167</v>
+      </c>
+      <c r="B1169" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>level1167</v>
+      </c>
+      <c r="C1169" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D1169" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>15000000</v>
+      </c>
+      <c r="E1169" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1169" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1169" s="1">
+        <v>20515000000</v>
+      </c>
+      <c r="H1169" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1169" s="1">
+        <v>206000000</v>
+      </c>
+      <c r="J1169" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1169" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1169" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1169" s="1">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
